--- a/BusinessManagement/Content Collection/Mathematics/CBSE10MathsPilot/ContentPlanCBSE10MathsPilot.xlsx
+++ b/BusinessManagement/Content Collection/Mathematics/CBSE10MathsPilot/ContentPlanCBSE10MathsPilot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="865"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" tabRatio="738"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -194,31 +194,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Susmita to furnish the complete list</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Sydney:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Susmita, please furnish an exhaustive list.</t>
+Anwesha to furnish the complete formula list</t>
         </r>
       </text>
     </comment>
@@ -2016,7 +1992,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
   <si>
     <t>Board</t>
   </si>
@@ -2522,24 +2498,6 @@
     <t>Non Video Schema Approval / Rejection Comments</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>.+91 96743 50292</t>
-  </si>
-  <si>
-    <t>Susmita Bhattacharya</t>
-  </si>
-  <si>
-    <t>neelnirjane1989@gmail.com</t>
-  </si>
-  <si>
-    <t>Arati Chakraborty</t>
-  </si>
-  <si>
-    <t>.+91 90072 29222</t>
-  </si>
-  <si>
     <t>Anirban Chakrabarty</t>
   </si>
   <si>
@@ -2558,35 +2516,7 @@
     <t>Pilot version</t>
   </si>
   <si>
-    <t>Prose: A Letter to God</t>
-  </si>
-  <si>
-    <t>Word meanings</t>
-  </si>
-  <si>
-    <t>Probable questions</t>
-  </si>
-  <si>
-    <t>List of important words:
-1. crest
-2. dotted
-3. downpour
-4. intimately</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
     <t>Word Doc</t>
-  </si>
-  <si>
-    <t>Key Points</t>
-  </si>
-  <si>
-    <t>Standard Q&amp;A formatting</t>
   </si>
   <si>
     <t>Teacher Depicting Topic</t>
@@ -2737,9 +2667,6 @@
     <t>Teacher summarizing the video and congratulating the students, describing the crux of the next video</t>
   </si>
   <si>
-    <t>General Explanation of the Prose and Inline coverage of Objective Questions</t>
-  </si>
-  <si>
     <t>Teacher welcoming students, introducing herself and today's lecture. Starting to talk about the author, beginning from his childhood</t>
   </si>
   <si>
@@ -2756,16 +2683,6 @@
   </si>
   <si>
     <t>Repeat above two scenes (2 &amp; 3) until all probable difficult / in-depth question and answers are exhausted</t>
-  </si>
-  <si>
-    <t>List of probable questions for exam:
-1. Who is the author of the story?
-2. Who does Lencho have complete faith in?
-3. Why does he sign the letter ‘God’?</t>
-  </si>
-  <si>
-    <t>1. Anodiam branding with logo, watermark, font, Color etc.
-2. General formatting like Google synonyms</t>
   </si>
   <si>
     <t>Mexican revolution and it's cultural impact</t>
@@ -2848,7 +2765,87 @@
     <t>amit9051873451@gmail.com</t>
   </si>
   <si>
-    <t>arati.englishteacher@gmail.com</t>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>.+91 90889 89133</t>
+  </si>
+  <si>
+    <t>.+91 98300 35973</t>
+  </si>
+  <si>
+    <t>siddmath73@gmail.com</t>
+  </si>
+  <si>
+    <t>Siddartha Banerjee</t>
+  </si>
+  <si>
+    <t>Anwesha Bhattacharya</t>
+  </si>
+  <si>
+    <t>anwesha.desk@gmail.com</t>
+  </si>
+  <si>
+    <t>Mensuration</t>
+  </si>
+  <si>
+    <t>Algebra</t>
+  </si>
+  <si>
+    <t>Area &amp; volume of solid figure</t>
+  </si>
+  <si>
+    <t>Area &amp; perimeter of plane figure</t>
+  </si>
+  <si>
+    <t>Linear equations</t>
+  </si>
+  <si>
+    <t>Simultaneous equations</t>
+  </si>
+  <si>
+    <t>Quadratic equations</t>
+  </si>
+  <si>
+    <t>Formula for 2D shapes</t>
+  </si>
+  <si>
+    <t>Value of Sqrt(2), Sqrt(3) and PI
+Formula of area, perimeter &amp; diagonals for  Square, Rectangle, Triangle, Rhombus, Trapezium, Parallelogram &amp; Circles</t>
+  </si>
+  <si>
+    <t>Formulae</t>
+  </si>
+  <si>
+    <t>Formula for 3D shapes</t>
+  </si>
+  <si>
+    <t>Formula of area and volume for Cubes, Cuboids, Cylinder, Cone, Sphere, Hemisphere</t>
+  </si>
+  <si>
+    <t>1. Anodiam branding with logo, watermark, font, Color etc.
+2. General formatting like Mathematical formula and geometric diagrams</t>
+  </si>
+  <si>
+    <t>List of Formulae</t>
+  </si>
+  <si>
+    <t>Substitution method
+Elemination method
+Cross multiplication method</t>
+  </si>
+  <si>
+    <t>General formatting like Mathematical formula and geometric diagrams</t>
+  </si>
+  <si>
+    <t>General formatting like Mathematical formula</t>
+  </si>
+  <si>
+    <t>Sri Dhar Acharya formula
+Roots: alpha beta equation</t>
+  </si>
+  <si>
+    <t>Theory of Mensuration</t>
   </si>
 </sst>
 </file>
@@ -3912,9 +3909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4238,20 +4232,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -4479,7 +4469,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>826657</xdr:colOff>
+      <xdr:colOff>826656</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>848101</xdr:rowOff>
     </xdr:to>
@@ -4777,12 +4767,12 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -4791,128 +4781,128 @@
     <col min="7" max="7" width="31.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="46.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
+      <c r="A1" s="158"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:10" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="159"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="159"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="160" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="159"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="158"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="159"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="166"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
       <c r="F4" s="66" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="167"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="159"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="158"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="159"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="166"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="165"/>
       <c r="F5" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="7">
         <v>10</v>
       </c>
-      <c r="H5" s="167"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="159"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="158"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="166"/>
+      <c r="A6" s="158"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="63" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="167"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="159"/>
+        <v>151</v>
+      </c>
+      <c r="H6" s="166"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="65" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="38">
         <v>2021</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="159"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="158"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="159"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="159"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="158"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
       <c r="E9" s="42" t="s">
         <v>42</v>
       </c>
@@ -4925,54 +4915,54 @@
       <c r="H9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="165"/>
-      <c r="J9" s="159"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="159"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="62" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="165"/>
-      <c r="J10" s="159"/>
+        <v>152</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="159"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="63" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="165"/>
-      <c r="J11" s="159"/>
+        <v>153</v>
+      </c>
+      <c r="I11" s="164"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="159"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="63" t="s">
         <v>37</v>
       </c>
@@ -4980,39 +4970,39 @@
         <v>60</v>
       </c>
       <c r="G12" s="69" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I12" s="165"/>
-      <c r="J12" s="159"/>
+        <v>147</v>
+      </c>
+      <c r="I12" s="164"/>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="159"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="64" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="165"/>
-      <c r="J13" s="159"/>
+        <v>70</v>
+      </c>
+      <c r="I13" s="164"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="159"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
       <c r="E14" s="64" t="s">
         <v>39</v>
       </c>
@@ -5020,19 +5010,19 @@
         <v>59</v>
       </c>
       <c r="G14" s="69" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="165"/>
-      <c r="J14" s="159"/>
+        <v>71</v>
+      </c>
+      <c r="I14" s="164"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
       <c r="E15" s="64" t="s">
         <v>40</v>
       </c>
@@ -5040,48 +5030,48 @@
         <v>61</v>
       </c>
       <c r="G15" s="69" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="165"/>
-      <c r="J15" s="159"/>
+        <v>72</v>
+      </c>
+      <c r="I15" s="164"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="159"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="65" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="158" t="s">
-        <v>163</v>
+      <c r="G16" s="157" t="s">
+        <v>146</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="165"/>
-      <c r="J16" s="159"/>
+        <v>71</v>
+      </c>
+      <c r="I16" s="164"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="159"/>
+      <c r="A17" s="158"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="33" t="s">
         <v>11</v>
       </c>
@@ -5106,33 +5096,33 @@
       <c r="I18" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="159"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="159"/>
+      <c r="A19" s="158"/>
       <c r="B19" s="51" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D19" s="70">
         <v>44382</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F19" s="12" t="str">
         <f>F11</f>
-        <v>Arati Chakraborty</v>
+        <v>Siddartha Banerjee</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="13"/>
       <c r="I19" s="57"/>
-      <c r="J19" s="159"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="159"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="52"/>
       <c r="C20" s="3"/>
       <c r="D20" s="55"/>
@@ -5141,10 +5131,10 @@
       <c r="G20" s="60"/>
       <c r="H20" s="4"/>
       <c r="I20" s="58"/>
-      <c r="J20" s="159"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="159"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="52"/>
       <c r="C21" s="3"/>
       <c r="D21" s="55"/>
@@ -5153,10 +5143,10 @@
       <c r="G21" s="60"/>
       <c r="H21" s="4"/>
       <c r="I21" s="58"/>
-      <c r="J21" s="159"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="159"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="52"/>
       <c r="C22" s="3"/>
       <c r="D22" s="55"/>
@@ -5165,10 +5155,10 @@
       <c r="G22" s="60"/>
       <c r="H22" s="4"/>
       <c r="I22" s="58"/>
-      <c r="J22" s="159"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="159"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="52"/>
       <c r="C23" s="3"/>
       <c r="D23" s="55"/>
@@ -5177,10 +5167,10 @@
       <c r="G23" s="60"/>
       <c r="H23" s="4"/>
       <c r="I23" s="58"/>
-      <c r="J23" s="159"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="159"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="52"/>
       <c r="C24" s="3"/>
       <c r="D24" s="55"/>
@@ -5189,10 +5179,10 @@
       <c r="G24" s="60"/>
       <c r="H24" s="4"/>
       <c r="I24" s="58"/>
-      <c r="J24" s="159"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="159"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="52"/>
       <c r="C25" s="3"/>
       <c r="D25" s="55"/>
@@ -5201,10 +5191,10 @@
       <c r="G25" s="60"/>
       <c r="H25" s="4"/>
       <c r="I25" s="58"/>
-      <c r="J25" s="159"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="159"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="52"/>
       <c r="C26" s="3"/>
       <c r="D26" s="55"/>
@@ -5213,10 +5203,10 @@
       <c r="G26" s="60"/>
       <c r="H26" s="4"/>
       <c r="I26" s="58"/>
-      <c r="J26" s="159"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="159"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="52"/>
       <c r="C27" s="3"/>
       <c r="D27" s="55"/>
@@ -5225,10 +5215,10 @@
       <c r="G27" s="60"/>
       <c r="H27" s="4"/>
       <c r="I27" s="58"/>
-      <c r="J27" s="159"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="159"/>
+      <c r="A28" s="158"/>
       <c r="B28" s="52"/>
       <c r="C28" s="3"/>
       <c r="D28" s="55"/>
@@ -5237,10 +5227,10 @@
       <c r="G28" s="60"/>
       <c r="H28" s="4"/>
       <c r="I28" s="58"/>
-      <c r="J28" s="159"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="159"/>
+      <c r="A29" s="158"/>
       <c r="B29" s="52"/>
       <c r="C29" s="3"/>
       <c r="D29" s="55"/>
@@ -5249,10 +5239,10 @@
       <c r="G29" s="60"/>
       <c r="H29" s="4"/>
       <c r="I29" s="58"/>
-      <c r="J29" s="159"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="159"/>
+      <c r="A30" s="158"/>
       <c r="B30" s="53"/>
       <c r="C30" s="9"/>
       <c r="D30" s="56"/>
@@ -5261,147 +5251,147 @@
       <c r="G30" s="61"/>
       <c r="H30" s="10"/>
       <c r="I30" s="59"/>
-      <c r="J30" s="159"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="159"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="164"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="159"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="159"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="158"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="159"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="159"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="159"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="159"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
+      <c r="A35" s="158"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="159"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="159"/>
+      <c r="A36" s="158"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="159"/>
-      <c r="J37" s="159"/>
+      <c r="A37" s="158"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="159"/>
-      <c r="J38" s="159"/>
+      <c r="A38" s="158"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="159"/>
-      <c r="J39" s="159"/>
+      <c r="A39" s="158"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="159"/>
-      <c r="J40" s="159"/>
+      <c r="A40" s="158"/>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="159"/>
-      <c r="J41" s="159"/>
+      <c r="A41" s="158"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="159"/>
-      <c r="J42" s="159"/>
+      <c r="A42" s="158"/>
+      <c r="J42" s="158"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="159"/>
-      <c r="J43" s="159"/>
+      <c r="A43" s="158"/>
+      <c r="J43" s="158"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="159"/>
-      <c r="J44" s="159"/>
+      <c r="A44" s="158"/>
+      <c r="J44" s="158"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="159"/>
-      <c r="J45" s="159"/>
+      <c r="A45" s="158"/>
+      <c r="J45" s="158"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="159"/>
-      <c r="J46" s="159"/>
+      <c r="A46" s="158"/>
+      <c r="J46" s="158"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="159"/>
-      <c r="J47" s="159"/>
+      <c r="A47" s="158"/>
+      <c r="J47" s="158"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="159"/>
-      <c r="J48" s="159"/>
+      <c r="A48" s="158"/>
+      <c r="J48" s="158"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="159"/>
-      <c r="J49" s="159"/>
+      <c r="A49" s="158"/>
+      <c r="J49" s="158"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="159"/>
-      <c r="J50" s="159"/>
+      <c r="A50" s="158"/>
+      <c r="J50" s="158"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="159"/>
-      <c r="J51" s="159"/>
+      <c r="A51" s="158"/>
+      <c r="J51" s="158"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="159"/>
-      <c r="J52" s="159"/>
+      <c r="A52" s="158"/>
+      <c r="J52" s="158"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="159"/>
-      <c r="J53" s="159"/>
+      <c r="A53" s="158"/>
+      <c r="J53" s="158"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5420,7 +5410,7 @@
     <mergeCell ref="I3:I16"/>
   </mergeCells>
   <conditionalFormatting sqref="H19:H30">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5442,13 +5432,13 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G10" r:id="rId1"/>
-    <hyperlink ref="G13" r:id="rId2"/>
-    <hyperlink ref="G14" r:id="rId3"/>
-    <hyperlink ref="G16" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G15" r:id="rId6"/>
-    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G13" r:id="rId1"/>
+    <hyperlink ref="G14" r:id="rId2"/>
+    <hyperlink ref="G16" r:id="rId3"/>
+    <hyperlink ref="G12" r:id="rId4"/>
+    <hyperlink ref="G15" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
@@ -5520,10 +5510,10 @@
     <tabColor theme="4" tint="0.39997558519241921"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H6" sqref="H6:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5556,33 +5546,33 @@
       <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="172" t="s">
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="173"/>
+      <c r="K4" s="172"/>
     </row>
     <row r="5" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
@@ -5620,16 +5610,20 @@
       <c r="B6" s="71">
         <v>1</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="72">
+        <v>10</v>
+      </c>
       <c r="E6" s="72">
         <v>1</v>
       </c>
-      <c r="F6" s="72" t="s">
-        <v>80</v>
-      </c>
+      <c r="F6" s="72"/>
       <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="H6" s="73" t="s">
+        <v>161</v>
+      </c>
       <c r="I6" s="74"/>
       <c r="J6" s="75"/>
       <c r="K6" s="76"/>
@@ -5641,19 +5635,31 @@
       <c r="E7" s="78"/>
       <c r="F7" s="78"/>
       <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="H7" s="79" t="s">
+        <v>160</v>
+      </c>
       <c r="I7" s="80"/>
       <c r="J7" s="81"/>
       <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="B8" s="77">
+        <v>2</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="78">
+        <v>20</v>
+      </c>
+      <c r="E8" s="78">
+        <v>2</v>
+      </c>
       <c r="F8" s="78"/>
       <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="H8" s="79" t="s">
+        <v>162</v>
+      </c>
       <c r="I8" s="82"/>
       <c r="J8" s="81"/>
       <c r="K8" s="82"/>
@@ -5665,7 +5671,9 @@
       <c r="E9" s="78"/>
       <c r="F9" s="78"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
+      <c r="H9" s="79" t="s">
+        <v>163</v>
+      </c>
       <c r="I9" s="82"/>
       <c r="J9" s="81"/>
       <c r="K9" s="82"/>
@@ -5677,7 +5685,9 @@
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
       <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="79" t="s">
+        <v>164</v>
+      </c>
       <c r="I10" s="82"/>
       <c r="J10" s="81"/>
       <c r="K10" s="82"/>
@@ -6031,100 +6041,28 @@
       <c r="K39" s="82"/>
     </row>
     <row r="40" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="82"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="82"/>
-    </row>
-    <row r="42" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="82"/>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="82"/>
-    </row>
-    <row r="44" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="82"/>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="82"/>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="15"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="18"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6132,23 +6070,18 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:K4"/>
   </mergeCells>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+  <conditionalFormatting sqref="J6:J40">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J46">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
-      <formula>"Approved"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
+  <conditionalFormatting sqref="J41">
     <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"Approved"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J47">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J41">
       <formula1>"Approved,Rejected"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6164,15 +6097,15 @@
   </sheetPr>
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.42578125" customWidth="1"/>
@@ -6198,24 +6131,24 @@
     </row>
     <row r="3" spans="2:13" s="1" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="179" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="180"/>
-      <c r="L4" s="177" t="s">
+      <c r="K4" s="179"/>
+      <c r="L4" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="178"/>
+      <c r="M4" s="177"/>
     </row>
     <row r="5" spans="2:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
@@ -6255,621 +6188,665 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="102">
+    <row r="6" spans="2:13" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="101">
         <v>1</v>
       </c>
-      <c r="C6" s="83" t="s">
-        <v>80</v>
+      <c r="C6" s="101" t="s">
+        <v>161</v>
       </c>
       <c r="D6" s="73">
         <v>1</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="157" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="87"/>
+      <c r="E6" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="156" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="86"/>
       <c r="K6" s="74"/>
-      <c r="L6" s="88"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="74"/>
     </row>
-    <row r="7" spans="2:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
-      <c r="C7" s="90"/>
+    <row r="7" spans="2:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="102"/>
+      <c r="C7" s="101" t="s">
+        <v>160</v>
+      </c>
       <c r="D7" s="79">
         <v>2</v>
       </c>
-      <c r="E7" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="156" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="93"/>
+      <c r="E7" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="92"/>
       <c r="K7" s="80"/>
-      <c r="L7" s="94"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="80"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="93"/>
+    <row r="8" spans="2:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="102">
+        <v>2</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="88">
+        <v>3</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="89"/>
+      <c r="G8" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="92"/>
       <c r="K8" s="80"/>
-      <c r="L8" s="94"/>
+      <c r="L8" s="93"/>
       <c r="M8" s="80"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="93"/>
+    <row r="9" spans="2:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="102"/>
+      <c r="C9" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="88">
+        <v>4</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="92"/>
       <c r="K9" s="80"/>
-      <c r="L9" s="94"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="80"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="93"/>
+    <row r="10" spans="2:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="102"/>
+      <c r="C10" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="88">
+        <v>5</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="92"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="94"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="80"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
+    <row r="11" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="102"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="91"/>
       <c r="I11" s="80"/>
-      <c r="J11" s="93"/>
+      <c r="J11" s="92"/>
       <c r="K11" s="80"/>
-      <c r="L11" s="94"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="80"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
+    <row r="12" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="102"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="91"/>
       <c r="I12" s="80"/>
-      <c r="J12" s="93"/>
+      <c r="J12" s="92"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="94"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="80"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
+    <row r="13" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="102"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="80"/>
-      <c r="J13" s="93"/>
+      <c r="J13" s="92"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="94"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="80"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="103"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
+    <row r="14" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="102"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="80"/>
-      <c r="J14" s="93"/>
+      <c r="J14" s="92"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="94"/>
+      <c r="L14" s="93"/>
       <c r="M14" s="80"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+    <row r="15" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="102"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="91"/>
       <c r="I15" s="80"/>
-      <c r="J15" s="93"/>
+      <c r="J15" s="92"/>
       <c r="K15" s="80"/>
-      <c r="L15" s="94"/>
+      <c r="L15" s="93"/>
       <c r="M15" s="80"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
+    <row r="16" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="102"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="91"/>
       <c r="I16" s="80"/>
-      <c r="J16" s="93"/>
+      <c r="J16" s="92"/>
       <c r="K16" s="80"/>
-      <c r="L16" s="94"/>
+      <c r="L16" s="93"/>
       <c r="M16" s="80"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="103"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+    <row r="17" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="102"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="91"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="93"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="94"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="80"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+    <row r="18" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="102"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="91"/>
       <c r="I18" s="80"/>
-      <c r="J18" s="93"/>
+      <c r="J18" s="92"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="94"/>
+      <c r="L18" s="93"/>
       <c r="M18" s="80"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+    <row r="19" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="102"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="91"/>
       <c r="I19" s="80"/>
-      <c r="J19" s="93"/>
+      <c r="J19" s="92"/>
       <c r="K19" s="80"/>
-      <c r="L19" s="94"/>
+      <c r="L19" s="93"/>
       <c r="M19" s="80"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+    <row r="20" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="102"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="80"/>
-      <c r="J20" s="93"/>
+      <c r="J20" s="92"/>
       <c r="K20" s="80"/>
-      <c r="L20" s="94"/>
+      <c r="L20" s="93"/>
       <c r="M20" s="80"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
+    <row r="21" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="102"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="91"/>
       <c r="I21" s="80"/>
-      <c r="J21" s="93"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="80"/>
-      <c r="L21" s="94"/>
+      <c r="L21" s="93"/>
       <c r="M21" s="80"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+    <row r="22" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="102"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="80"/>
-      <c r="J22" s="93"/>
+      <c r="J22" s="92"/>
       <c r="K22" s="80"/>
-      <c r="L22" s="94"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="80"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+    <row r="23" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="102"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="91"/>
       <c r="I23" s="80"/>
-      <c r="J23" s="93"/>
+      <c r="J23" s="92"/>
       <c r="K23" s="80"/>
-      <c r="L23" s="94"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="80"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
+    <row r="24" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="102"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="91"/>
       <c r="I24" s="80"/>
-      <c r="J24" s="93"/>
+      <c r="J24" s="92"/>
       <c r="K24" s="80"/>
-      <c r="L24" s="94"/>
+      <c r="L24" s="93"/>
       <c r="M24" s="80"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="103"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
+    <row r="25" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="102"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="91"/>
       <c r="I25" s="80"/>
-      <c r="J25" s="93"/>
+      <c r="J25" s="92"/>
       <c r="K25" s="80"/>
-      <c r="L25" s="94"/>
+      <c r="L25" s="93"/>
       <c r="M25" s="80"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+    <row r="26" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="102"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="80"/>
-      <c r="J26" s="93"/>
+      <c r="J26" s="92"/>
       <c r="K26" s="80"/>
-      <c r="L26" s="94"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="80"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
+    <row r="27" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="102"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="91"/>
       <c r="I27" s="80"/>
-      <c r="J27" s="93"/>
+      <c r="J27" s="92"/>
       <c r="K27" s="80"/>
-      <c r="L27" s="94"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="80"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="103"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
+    <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="102"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="80"/>
-      <c r="J28" s="93"/>
+      <c r="J28" s="92"/>
       <c r="K28" s="80"/>
-      <c r="L28" s="94"/>
+      <c r="L28" s="93"/>
       <c r="M28" s="80"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
+    <row r="29" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="102"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="91"/>
       <c r="I29" s="80"/>
-      <c r="J29" s="93"/>
+      <c r="J29" s="92"/>
       <c r="K29" s="80"/>
-      <c r="L29" s="94"/>
+      <c r="L29" s="93"/>
       <c r="M29" s="80"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
+    <row r="30" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="102"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="91"/>
       <c r="I30" s="80"/>
-      <c r="J30" s="93"/>
+      <c r="J30" s="92"/>
       <c r="K30" s="80"/>
-      <c r="L30" s="94"/>
+      <c r="L30" s="93"/>
       <c r="M30" s="80"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="103"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
+    <row r="31" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="102"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="91"/>
       <c r="I31" s="80"/>
-      <c r="J31" s="93"/>
+      <c r="J31" s="92"/>
       <c r="K31" s="80"/>
-      <c r="L31" s="94"/>
+      <c r="L31" s="93"/>
       <c r="M31" s="80"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+    <row r="32" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="102"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="80"/>
-      <c r="J32" s="93"/>
+      <c r="J32" s="92"/>
       <c r="K32" s="80"/>
-      <c r="L32" s="94"/>
+      <c r="L32" s="93"/>
       <c r="M32" s="80"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="80"/>
-      <c r="J33" s="93"/>
+      <c r="J33" s="92"/>
       <c r="K33" s="80"/>
-      <c r="L33" s="94"/>
+      <c r="L33" s="93"/>
       <c r="M33" s="80"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="103"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="80"/>
-      <c r="J34" s="93"/>
+      <c r="J34" s="92"/>
       <c r="K34" s="80"/>
-      <c r="L34" s="94"/>
+      <c r="L34" s="93"/>
       <c r="M34" s="80"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="103"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="80"/>
-      <c r="J35" s="93"/>
+      <c r="J35" s="92"/>
       <c r="K35" s="80"/>
-      <c r="L35" s="94"/>
+      <c r="L35" s="93"/>
       <c r="M35" s="80"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="103"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="92"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="80"/>
-      <c r="J36" s="93"/>
+      <c r="J36" s="92"/>
       <c r="K36" s="80"/>
-      <c r="L36" s="94"/>
+      <c r="L36" s="93"/>
       <c r="M36" s="80"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="92"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="80"/>
-      <c r="J37" s="93"/>
+      <c r="J37" s="92"/>
       <c r="K37" s="80"/>
-      <c r="L37" s="94"/>
+      <c r="L37" s="93"/>
       <c r="M37" s="80"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="92"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91"/>
       <c r="I38" s="80"/>
-      <c r="J38" s="93"/>
+      <c r="J38" s="92"/>
       <c r="K38" s="80"/>
-      <c r="L38" s="94"/>
+      <c r="L38" s="93"/>
       <c r="M38" s="80"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="103"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="91"/>
       <c r="I39" s="80"/>
-      <c r="J39" s="93"/>
+      <c r="J39" s="92"/>
       <c r="K39" s="80"/>
-      <c r="L39" s="94"/>
+      <c r="L39" s="93"/>
       <c r="M39" s="80"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="92"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="80"/>
-      <c r="J40" s="93"/>
+      <c r="J40" s="92"/>
       <c r="K40" s="80"/>
-      <c r="L40" s="94"/>
+      <c r="L40" s="93"/>
       <c r="M40" s="80"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="103"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="80"/>
-      <c r="J41" s="93"/>
+      <c r="J41" s="92"/>
       <c r="K41" s="80"/>
-      <c r="L41" s="94"/>
+      <c r="L41" s="93"/>
       <c r="M41" s="80"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="103"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="91"/>
       <c r="I42" s="80"/>
-      <c r="J42" s="93"/>
+      <c r="J42" s="92"/>
       <c r="K42" s="80"/>
-      <c r="L42" s="94"/>
+      <c r="L42" s="93"/>
       <c r="M42" s="80"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="103"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="92"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="91"/>
       <c r="I43" s="80"/>
-      <c r="J43" s="93"/>
+      <c r="J43" s="92"/>
       <c r="K43" s="80"/>
-      <c r="L43" s="94"/>
+      <c r="L43" s="93"/>
       <c r="M43" s="80"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="103"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="92"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="91"/>
       <c r="I44" s="80"/>
-      <c r="J44" s="93"/>
+      <c r="J44" s="92"/>
       <c r="K44" s="80"/>
-      <c r="L44" s="94"/>
+      <c r="L44" s="93"/>
       <c r="M44" s="80"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="103"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="92"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="91"/>
       <c r="I45" s="80"/>
-      <c r="J45" s="93"/>
+      <c r="J45" s="92"/>
       <c r="K45" s="80"/>
-      <c r="L45" s="94"/>
+      <c r="L45" s="93"/>
       <c r="M45" s="80"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="103"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="92"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="91"/>
       <c r="I46" s="80"/>
-      <c r="J46" s="93"/>
+      <c r="J46" s="92"/>
       <c r="K46" s="80"/>
-      <c r="L46" s="94"/>
+      <c r="L46" s="93"/>
       <c r="M46" s="80"/>
     </row>
     <row r="47" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="104"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="101"/>
-      <c r="M47" s="99"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="98"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="98"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
@@ -6905,8 +6882,8 @@
       <formula>"Confirmed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G47">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G34:G47">
       <formula1>"Notes, Mnemonic, Diagram, Chart, Flash Card, Key Points, Sample Answer, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H47">
@@ -6918,11 +6895,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J47">
       <formula1>"Confirmed,Rejected"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G33">
+      <formula1>"Formulae, Notes, Mnemonic, Diagram, Chart, Flash Card, Key Points, Sample Answer, Other"</formula1>
+    </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F6" location="N1A1!A1" display="N1A1!A1"/>
-    <hyperlink ref="F7" location="N1A2!A1" display="N1A2!A1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6937,10 +6913,10 @@
   <dimension ref="B1:W121"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="5" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6948,7 +6924,7 @@
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" style="1" customWidth="1"/>
@@ -6972,49 +6948,49 @@
   <sheetData>
     <row r="1" spans="2:23" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="183"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="182"/>
     </row>
     <row r="3" spans="2:23" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="188" t="s">
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="189"/>
-      <c r="P4" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="190" t="s">
+      <c r="O4" s="188"/>
+      <c r="P4" s="183" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="191"/>
-      <c r="U4" s="187" t="s">
+      <c r="T4" s="190"/>
+      <c r="U4" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="186"/>
+      <c r="V4" s="185"/>
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="2:23" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7084,3062 +7060,3062 @@
       <c r="W5" s="19"/>
     </row>
     <row r="6" spans="2:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="105">
+      <c r="B6" s="104">
         <v>1</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="138">
+      <c r="C6" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="137">
         <v>1</v>
       </c>
-      <c r="E6" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="106">
+      <c r="E6" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="105">
         <v>1</v>
       </c>
-      <c r="I6" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="152" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="124" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="153" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="154" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="139"/>
-      <c r="O6" s="140"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="141"/>
+      <c r="I6" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="153" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="138"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="140"/>
     </row>
     <row r="7" spans="2:23" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B7" s="77"/>
       <c r="C7" s="78"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="112"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="78"/>
       <c r="G7" s="78"/>
-      <c r="H7" s="131">
+      <c r="H7" s="130">
         <v>2</v>
       </c>
-      <c r="I7" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="127" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="155" t="s">
-        <v>162</v>
-      </c>
-      <c r="M7" s="156" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="113"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="110"/>
+      <c r="I7" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="112"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="82"/>
-      <c r="S7" s="115"/>
+      <c r="S7" s="114"/>
       <c r="T7" s="82"/>
-      <c r="U7" s="115"/>
+      <c r="U7" s="114"/>
       <c r="V7" s="82"/>
     </row>
     <row r="8" spans="2:23" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B8" s="77"/>
       <c r="C8" s="78"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="112"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="78"/>
       <c r="G8" s="78"/>
-      <c r="H8" s="131">
+      <c r="H8" s="130">
         <v>3</v>
       </c>
-      <c r="I8" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="155" t="s">
-        <v>166</v>
-      </c>
-      <c r="K8" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="155" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="134"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="110"/>
+      <c r="I8" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="154" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="133"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="82"/>
-      <c r="S8" s="115"/>
+      <c r="S8" s="114"/>
       <c r="T8" s="82"/>
-      <c r="U8" s="115"/>
+      <c r="U8" s="114"/>
       <c r="V8" s="82"/>
     </row>
     <row r="9" spans="2:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="77"/>
       <c r="C9" s="78"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="78"/>
       <c r="G9" s="78"/>
-      <c r="H9" s="131">
+      <c r="H9" s="130">
         <v>4</v>
       </c>
-      <c r="I9" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="127" t="s">
-        <v>105</v>
+      <c r="I9" s="109" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="126" t="s">
+        <v>91</v>
       </c>
       <c r="L9" s="78"/>
       <c r="M9" s="82"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="110"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="109"/>
       <c r="R9" s="82"/>
-      <c r="S9" s="115"/>
+      <c r="S9" s="114"/>
       <c r="T9" s="82"/>
-      <c r="U9" s="115"/>
+      <c r="U9" s="114"/>
       <c r="V9" s="82"/>
     </row>
     <row r="10" spans="2:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="78"/>
       <c r="G10" s="78"/>
       <c r="H10" s="78">
         <v>5</v>
       </c>
-      <c r="I10" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="125" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="110"/>
+      <c r="I10" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="82"/>
-      <c r="S10" s="115"/>
+      <c r="S10" s="114"/>
       <c r="T10" s="82"/>
-      <c r="U10" s="115"/>
+      <c r="U10" s="114"/>
       <c r="V10" s="82"/>
     </row>
     <row r="11" spans="2:23" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="77"/>
       <c r="C11" s="78"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
       <c r="H11" s="78">
         <v>6</v>
       </c>
-      <c r="I11" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="90" t="s">
-        <v>103</v>
+      <c r="I11" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="89" t="s">
+        <v>89</v>
       </c>
       <c r="M11" s="82"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="110"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="82"/>
-      <c r="S11" s="115"/>
+      <c r="S11" s="114"/>
       <c r="T11" s="82"/>
-      <c r="U11" s="115"/>
+      <c r="U11" s="114"/>
       <c r="V11" s="82"/>
     </row>
     <row r="12" spans="2:23" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="77"/>
       <c r="C12" s="78"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="78"/>
       <c r="G12" s="78"/>
       <c r="H12" s="78">
         <v>7</v>
       </c>
-      <c r="I12" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J12" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="113"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="110"/>
+      <c r="I12" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="112"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="82"/>
-      <c r="S12" s="115"/>
+      <c r="S12" s="114"/>
       <c r="T12" s="82"/>
-      <c r="U12" s="115"/>
+      <c r="U12" s="114"/>
       <c r="V12" s="82"/>
     </row>
     <row r="13" spans="2:23" ht="51" x14ac:dyDescent="0.2">
       <c r="B13" s="77"/>
       <c r="C13" s="78"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="78"/>
       <c r="G13" s="78"/>
       <c r="H13" s="78">
         <v>8</v>
       </c>
-      <c r="I13" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="90" t="s">
-        <v>103</v>
+      <c r="I13" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="89" t="s">
+        <v>89</v>
       </c>
       <c r="M13" s="82"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="110"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="82"/>
-      <c r="S13" s="115"/>
+      <c r="S13" s="114"/>
       <c r="T13" s="82"/>
-      <c r="U13" s="115"/>
+      <c r="U13" s="114"/>
       <c r="V13" s="82"/>
     </row>
     <row r="14" spans="2:23" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="77"/>
       <c r="C14" s="78"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
       <c r="H14" s="78">
         <v>9</v>
       </c>
-      <c r="I14" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J14" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="113"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="110"/>
+      <c r="I14" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="112"/>
+      <c r="O14" s="113"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="82"/>
-      <c r="S14" s="115"/>
+      <c r="S14" s="114"/>
       <c r="T14" s="82"/>
-      <c r="U14" s="115"/>
+      <c r="U14" s="114"/>
       <c r="V14" s="82"/>
     </row>
     <row r="15" spans="2:23" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="78"/>
       <c r="G15" s="78"/>
       <c r="H15" s="78">
         <v>19</v>
       </c>
-      <c r="I15" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="90" t="s">
-        <v>103</v>
+      <c r="I15" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="89" t="s">
+        <v>89</v>
       </c>
       <c r="M15" s="82"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="110"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="82"/>
-      <c r="S15" s="115"/>
+      <c r="S15" s="114"/>
       <c r="T15" s="82"/>
-      <c r="U15" s="115"/>
+      <c r="U15" s="114"/>
       <c r="V15" s="82"/>
     </row>
     <row r="16" spans="2:23" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="77"/>
       <c r="C16" s="78"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="78"/>
       <c r="G16" s="78"/>
       <c r="H16" s="78">
         <v>11</v>
       </c>
-      <c r="I16" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="113"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="110"/>
+      <c r="I16" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="132" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="133" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="112"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="109"/>
       <c r="R16" s="82"/>
-      <c r="S16" s="115"/>
+      <c r="S16" s="114"/>
       <c r="T16" s="82"/>
-      <c r="U16" s="115"/>
+      <c r="U16" s="114"/>
       <c r="V16" s="82"/>
     </row>
     <row r="17" spans="2:22" ht="51" x14ac:dyDescent="0.2">
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78">
         <v>12</v>
       </c>
-      <c r="I17" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="K17" s="125" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="90" t="s">
+      <c r="I17" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="82"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="82"/>
+    </row>
+    <row r="18" spans="2:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116">
+        <v>13</v>
+      </c>
+      <c r="I18" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" s="116"/>
+      <c r="M18" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="119"/>
+    </row>
+    <row r="19" spans="2:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="145">
+        <v>2</v>
+      </c>
+      <c r="E19" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="131" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="82"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="82"/>
-    </row>
-    <row r="18" spans="2:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117">
-        <v>13</v>
-      </c>
-      <c r="I18" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="126" t="s">
+      <c r="H19" s="105">
+        <v>1</v>
+      </c>
+      <c r="I19" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="117"/>
-      <c r="M18" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="121"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="120"/>
-    </row>
-    <row r="19" spans="2:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="146">
-        <v>2</v>
-      </c>
-      <c r="E19" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="106">
-        <v>1</v>
-      </c>
-      <c r="I19" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="M19" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="N19" s="139"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="142"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="142"/>
-      <c r="V19" s="141"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="141"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="140"/>
     </row>
     <row r="20" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="77"/>
       <c r="C20" s="78"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
       <c r="F20" s="78"/>
       <c r="G20" s="78"/>
-      <c r="H20" s="131">
+      <c r="H20" s="130">
         <v>2</v>
       </c>
-      <c r="I20" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="127" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="133" t="s">
-        <v>120</v>
+      <c r="I20" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="132" t="s">
+        <v>106</v>
       </c>
       <c r="M20" s="82"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="110"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="109"/>
       <c r="R20" s="82"/>
-      <c r="S20" s="115"/>
+      <c r="S20" s="114"/>
       <c r="T20" s="82"/>
-      <c r="U20" s="115"/>
+      <c r="U20" s="114"/>
       <c r="V20" s="82"/>
     </row>
     <row r="21" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="77"/>
       <c r="C21" s="78"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
-      <c r="H21" s="131">
+      <c r="H21" s="130">
         <v>3</v>
       </c>
-      <c r="I21" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="133" t="s">
-        <v>121</v>
+      <c r="I21" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="132" t="s">
+        <v>107</v>
       </c>
       <c r="M21" s="82"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="110"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="109"/>
       <c r="R21" s="82"/>
-      <c r="S21" s="115"/>
+      <c r="S21" s="114"/>
       <c r="T21" s="82"/>
-      <c r="U21" s="115"/>
+      <c r="U21" s="114"/>
       <c r="V21" s="82"/>
     </row>
     <row r="22" spans="2:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B22" s="77"/>
       <c r="C22" s="78"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
       <c r="F22" s="78"/>
       <c r="G22" s="78"/>
-      <c r="H22" s="131">
+      <c r="H22" s="130">
         <v>4</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="K22" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="133" t="s">
-        <v>122</v>
+      <c r="I22" s="109"/>
+      <c r="J22" s="132" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="132" t="s">
+        <v>108</v>
       </c>
       <c r="M22" s="82"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="110"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="109"/>
       <c r="R22" s="82"/>
-      <c r="S22" s="115"/>
+      <c r="S22" s="114"/>
       <c r="T22" s="82"/>
-      <c r="U22" s="115"/>
+      <c r="U22" s="114"/>
       <c r="V22" s="82"/>
     </row>
     <row r="23" spans="2:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="145">
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="144">
         <v>5</v>
       </c>
-      <c r="I23" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="126" t="s">
+      <c r="I23" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="116"/>
+      <c r="M23" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="N23" s="120"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="119"/>
+    </row>
+    <row r="24" spans="2:22" ht="51" x14ac:dyDescent="0.2">
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="146">
+        <v>3</v>
+      </c>
+      <c r="E24" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="129">
+        <v>1</v>
+      </c>
+      <c r="I24" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="L23" s="117"/>
-      <c r="M23" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="N23" s="121"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="123"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="120"/>
-    </row>
-    <row r="24" spans="2:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="B24" s="105"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="147">
-        <v>3</v>
-      </c>
-      <c r="E24" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="F24" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="130">
-        <v>1</v>
-      </c>
-      <c r="I24" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="L24" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="N24" s="139"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="141"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="141"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="140"/>
     </row>
     <row r="25" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="77"/>
       <c r="C25" s="78"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
       <c r="F25" s="78"/>
       <c r="G25" s="78"/>
-      <c r="H25" s="131">
+      <c r="H25" s="130">
         <v>2</v>
       </c>
-      <c r="I25" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="127" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="133" t="s">
-        <v>120</v>
+      <c r="I25" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" s="132" t="s">
+        <v>106</v>
       </c>
       <c r="M25" s="82"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="110"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="109"/>
       <c r="R25" s="82"/>
-      <c r="S25" s="115"/>
+      <c r="S25" s="114"/>
       <c r="T25" s="82"/>
-      <c r="U25" s="115"/>
+      <c r="U25" s="114"/>
       <c r="V25" s="82"/>
     </row>
     <row r="26" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B26" s="77"/>
       <c r="C26" s="78"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
       <c r="F26" s="78"/>
       <c r="G26" s="78"/>
-      <c r="H26" s="131">
+      <c r="H26" s="130">
         <v>3</v>
       </c>
-      <c r="I26" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="J26" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="127" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="133" t="s">
-        <v>121</v>
+      <c r="I26" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="132" t="s">
+        <v>107</v>
       </c>
       <c r="M26" s="82"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="110"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="109"/>
       <c r="R26" s="82"/>
-      <c r="S26" s="115"/>
+      <c r="S26" s="114"/>
       <c r="T26" s="82"/>
-      <c r="U26" s="115"/>
+      <c r="U26" s="114"/>
       <c r="V26" s="82"/>
     </row>
     <row r="27" spans="2:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B27" s="77"/>
       <c r="C27" s="78"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
       <c r="F27" s="78"/>
       <c r="G27" s="78"/>
-      <c r="H27" s="131">
+      <c r="H27" s="130">
         <v>4</v>
       </c>
-      <c r="I27" s="110"/>
-      <c r="J27" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" s="133" t="s">
-        <v>122</v>
+      <c r="I27" s="109"/>
+      <c r="J27" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="132" t="s">
+        <v>108</v>
       </c>
       <c r="M27" s="82"/>
-      <c r="N27" s="113"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="113"/>
-      <c r="Q27" s="110"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="113"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="109"/>
       <c r="R27" s="82"/>
-      <c r="S27" s="115"/>
+      <c r="S27" s="114"/>
       <c r="T27" s="82"/>
-      <c r="U27" s="115"/>
+      <c r="U27" s="114"/>
       <c r="V27" s="82"/>
     </row>
     <row r="28" spans="2:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="145">
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="144">
         <v>5</v>
       </c>
-      <c r="I28" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="117"/>
-      <c r="M28" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="N28" s="121"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="120"/>
+      <c r="I28" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="116"/>
+      <c r="M28" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28" s="120"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="119"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="119"/>
     </row>
     <row r="29" spans="2:22" ht="51" x14ac:dyDescent="0.2">
       <c r="B29" s="71"/>
       <c r="C29" s="72"/>
-      <c r="D29" s="135">
+      <c r="D29" s="134">
         <v>4</v>
       </c>
-      <c r="E29" s="148" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="136" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="149" t="s">
-        <v>132</v>
+      <c r="E29" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="135" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="148" t="s">
+        <v>118</v>
       </c>
       <c r="H29" s="72">
         <v>1</v>
       </c>
-      <c r="I29" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="K29" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="L29" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="N29" s="108"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="110"/>
+      <c r="I29" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="109"/>
       <c r="R29" s="76"/>
-      <c r="S29" s="111"/>
+      <c r="S29" s="110"/>
       <c r="T29" s="76"/>
-      <c r="U29" s="111"/>
+      <c r="U29" s="110"/>
       <c r="V29" s="76"/>
     </row>
     <row r="30" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
-      <c r="D30" s="135"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="136"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="135"/>
       <c r="G30" s="72"/>
       <c r="H30" s="72">
         <v>2</v>
       </c>
-      <c r="I30" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="K30" s="137" t="s">
+      <c r="I30" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="136" t="s">
-        <v>127</v>
-      </c>
       <c r="M30" s="74"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="110"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="109"/>
       <c r="R30" s="76"/>
-      <c r="S30" s="111"/>
+      <c r="S30" s="110"/>
       <c r="T30" s="76"/>
-      <c r="U30" s="111"/>
+      <c r="U30" s="110"/>
       <c r="V30" s="76"/>
     </row>
     <row r="31" spans="2:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="136"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="135"/>
       <c r="G31" s="72"/>
       <c r="H31" s="72">
         <v>3</v>
       </c>
-      <c r="I31" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="136" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="137" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" s="136" t="s">
-        <v>128</v>
+      <c r="I31" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="136" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="135" t="s">
+        <v>114</v>
       </c>
       <c r="M31" s="74"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="110"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="109"/>
       <c r="R31" s="76"/>
-      <c r="S31" s="111"/>
+      <c r="S31" s="110"/>
       <c r="T31" s="76"/>
-      <c r="U31" s="111"/>
+      <c r="U31" s="110"/>
       <c r="V31" s="76"/>
     </row>
     <row r="32" spans="2:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="136"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="72"/>
-      <c r="H32" s="131">
+      <c r="H32" s="130">
         <v>4</v>
       </c>
-      <c r="I32" s="110"/>
-      <c r="J32" s="133" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="127" t="s">
+      <c r="I32" s="109"/>
+      <c r="J32" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="K32" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="L32" s="133" t="s">
-        <v>133</v>
-      </c>
       <c r="M32" s="74"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="110"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="109"/>
       <c r="R32" s="76"/>
-      <c r="S32" s="111"/>
+      <c r="S32" s="110"/>
       <c r="T32" s="76"/>
-      <c r="U32" s="111"/>
+      <c r="U32" s="110"/>
       <c r="V32" s="76"/>
     </row>
     <row r="33" spans="2:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="145">
+      <c r="B33" s="115"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="144">
         <v>5</v>
       </c>
-      <c r="I33" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" s="117"/>
-      <c r="M33" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="N33" s="121"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="120"/>
+      <c r="I33" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="149" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="116"/>
+      <c r="M33" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" s="120"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="119"/>
     </row>
     <row r="34" spans="2:22" ht="51" x14ac:dyDescent="0.2">
       <c r="B34" s="71"/>
       <c r="C34" s="72"/>
-      <c r="D34" s="135">
+      <c r="D34" s="134">
         <v>5</v>
       </c>
-      <c r="E34" s="143" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="136"/>
-      <c r="G34" s="149" t="s">
-        <v>159</v>
+      <c r="E34" s="142" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="135"/>
+      <c r="G34" s="148" t="s">
+        <v>142</v>
       </c>
       <c r="H34" s="72">
         <v>1</v>
       </c>
-      <c r="I34" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="K34" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="L34" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="M34" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="N34" s="108"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="110"/>
+      <c r="I34" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="107"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="109"/>
       <c r="R34" s="76"/>
-      <c r="S34" s="111"/>
+      <c r="S34" s="110"/>
       <c r="T34" s="76"/>
-      <c r="U34" s="111"/>
+      <c r="U34" s="110"/>
       <c r="V34" s="76"/>
     </row>
     <row r="35" spans="2:22" ht="102" x14ac:dyDescent="0.2">
       <c r="B35" s="71"/>
       <c r="C35" s="72"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="136" t="s">
-        <v>149</v>
+      <c r="D35" s="134"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="135" t="s">
+        <v>132</v>
       </c>
       <c r="G35" s="72"/>
       <c r="H35" s="72">
         <v>2</v>
       </c>
-      <c r="I35" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" s="136" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="L35" s="144" t="s">
-        <v>153</v>
+      <c r="I35" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="J35" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="136" t="s">
+        <v>137</v>
+      </c>
+      <c r="L35" s="143" t="s">
+        <v>136</v>
       </c>
       <c r="M35" s="74"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="110"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="107"/>
+      <c r="Q35" s="109"/>
       <c r="R35" s="76"/>
-      <c r="S35" s="111"/>
+      <c r="S35" s="110"/>
       <c r="T35" s="76"/>
-      <c r="U35" s="111"/>
+      <c r="U35" s="110"/>
       <c r="V35" s="76"/>
     </row>
     <row r="36" spans="2:22" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="136" t="s">
-        <v>147</v>
+      <c r="D36" s="134"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="135" t="s">
+        <v>130</v>
       </c>
       <c r="G36" s="72"/>
       <c r="H36" s="72">
         <v>3</v>
       </c>
-      <c r="I36" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="136" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" s="137" t="s">
-        <v>154</v>
-      </c>
-      <c r="L36" s="144" t="s">
-        <v>155</v>
+      <c r="I36" s="109" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="135" t="s">
+        <v>144</v>
+      </c>
+      <c r="K36" s="136" t="s">
+        <v>137</v>
+      </c>
+      <c r="L36" s="143" t="s">
+        <v>138</v>
       </c>
       <c r="M36" s="74"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="110"/>
+      <c r="N36" s="107"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="107"/>
+      <c r="Q36" s="109"/>
       <c r="R36" s="76"/>
-      <c r="S36" s="111"/>
+      <c r="S36" s="110"/>
       <c r="T36" s="76"/>
-      <c r="U36" s="111"/>
+      <c r="U36" s="110"/>
       <c r="V36" s="76"/>
     </row>
     <row r="37" spans="2:22" ht="114.75" x14ac:dyDescent="0.2">
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="136" t="s">
-        <v>150</v>
+      <c r="D37" s="134"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="135" t="s">
+        <v>133</v>
       </c>
       <c r="G37" s="72"/>
       <c r="H37" s="72">
         <v>4</v>
       </c>
-      <c r="I37" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="K37" s="137" t="s">
-        <v>156</v>
-      </c>
-      <c r="L37" s="144" t="s">
-        <v>158</v>
+      <c r="I37" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="135" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="136" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" s="143" t="s">
+        <v>141</v>
       </c>
       <c r="M37" s="74"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="110"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="109"/>
       <c r="R37" s="76"/>
-      <c r="S37" s="111"/>
+      <c r="S37" s="110"/>
       <c r="T37" s="76"/>
-      <c r="U37" s="111"/>
+      <c r="U37" s="110"/>
       <c r="V37" s="76"/>
     </row>
     <row r="38" spans="2:22" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="116"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="145">
+      <c r="B38" s="115"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="144">
         <v>5</v>
       </c>
-      <c r="I38" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="J38" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="K38" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="L38" s="117"/>
-      <c r="M38" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="N38" s="121"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="121"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="120"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="120"/>
-      <c r="U38" s="123"/>
-      <c r="V38" s="120"/>
+      <c r="I38" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="116"/>
+      <c r="M38" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="N38" s="120"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="118"/>
+      <c r="R38" s="119"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="119"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="119"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="136"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="135"/>
       <c r="G39" s="72"/>
       <c r="H39" s="72"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="137"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="136"/>
       <c r="L39" s="72"/>
       <c r="M39" s="74"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="110"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="109"/>
       <c r="R39" s="76"/>
-      <c r="S39" s="111"/>
+      <c r="S39" s="110"/>
       <c r="T39" s="76"/>
-      <c r="U39" s="111"/>
+      <c r="U39" s="110"/>
       <c r="V39" s="76"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="136"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="135"/>
       <c r="G40" s="72"/>
       <c r="H40" s="72"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="137"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="136"/>
       <c r="L40" s="72"/>
       <c r="M40" s="74"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="110"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="109"/>
       <c r="R40" s="76"/>
-      <c r="S40" s="111"/>
+      <c r="S40" s="110"/>
       <c r="T40" s="76"/>
-      <c r="U40" s="111"/>
+      <c r="U40" s="110"/>
       <c r="V40" s="76"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="71"/>
       <c r="C41" s="72"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="136"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="135"/>
       <c r="G41" s="72"/>
       <c r="H41" s="72"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="137"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="136"/>
       <c r="L41" s="72"/>
       <c r="M41" s="74"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="109"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="110"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="107"/>
+      <c r="Q41" s="109"/>
       <c r="R41" s="76"/>
-      <c r="S41" s="111"/>
+      <c r="S41" s="110"/>
       <c r="T41" s="76"/>
-      <c r="U41" s="111"/>
+      <c r="U41" s="110"/>
       <c r="V41" s="76"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="71"/>
       <c r="C42" s="72"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="136"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="135"/>
       <c r="G42" s="72"/>
       <c r="H42" s="72"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="137"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="136"/>
       <c r="L42" s="72"/>
       <c r="M42" s="74"/>
-      <c r="N42" s="108"/>
-      <c r="O42" s="109"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="110"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="107"/>
+      <c r="Q42" s="109"/>
       <c r="R42" s="76"/>
-      <c r="S42" s="111"/>
+      <c r="S42" s="110"/>
       <c r="T42" s="76"/>
-      <c r="U42" s="111"/>
+      <c r="U42" s="110"/>
       <c r="V42" s="76"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="71"/>
       <c r="C43" s="72"/>
-      <c r="D43" s="135"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="136"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="72"/>
       <c r="H43" s="72"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="137"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="136"/>
       <c r="L43" s="72"/>
       <c r="M43" s="74"/>
-      <c r="N43" s="108"/>
-      <c r="O43" s="109"/>
-      <c r="P43" s="108"/>
-      <c r="Q43" s="110"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="109"/>
       <c r="R43" s="76"/>
-      <c r="S43" s="111"/>
+      <c r="S43" s="110"/>
       <c r="T43" s="76"/>
-      <c r="U43" s="111"/>
+      <c r="U43" s="110"/>
       <c r="V43" s="76"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="136"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="135"/>
       <c r="G44" s="72"/>
       <c r="H44" s="72"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="137"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="136"/>
       <c r="L44" s="72"/>
       <c r="M44" s="74"/>
-      <c r="N44" s="108"/>
-      <c r="O44" s="109"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="110"/>
+      <c r="N44" s="107"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="107"/>
+      <c r="Q44" s="109"/>
       <c r="R44" s="76"/>
-      <c r="S44" s="111"/>
+      <c r="S44" s="110"/>
       <c r="T44" s="76"/>
-      <c r="U44" s="111"/>
+      <c r="U44" s="110"/>
       <c r="V44" s="76"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="71"/>
       <c r="C45" s="72"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="136"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="135"/>
       <c r="G45" s="72"/>
       <c r="H45" s="72"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="137"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="136"/>
       <c r="L45" s="72"/>
       <c r="M45" s="74"/>
-      <c r="N45" s="108"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="110"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="107"/>
+      <c r="Q45" s="109"/>
       <c r="R45" s="76"/>
-      <c r="S45" s="111"/>
+      <c r="S45" s="110"/>
       <c r="T45" s="76"/>
-      <c r="U45" s="111"/>
+      <c r="U45" s="110"/>
       <c r="V45" s="76"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="71"/>
       <c r="C46" s="72"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="136"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="72"/>
       <c r="H46" s="72"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="137"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="136"/>
       <c r="L46" s="72"/>
       <c r="M46" s="74"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="110"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="107"/>
+      <c r="Q46" s="109"/>
       <c r="R46" s="76"/>
-      <c r="S46" s="111"/>
+      <c r="S46" s="110"/>
       <c r="T46" s="76"/>
-      <c r="U46" s="111"/>
+      <c r="U46" s="110"/>
       <c r="V46" s="76"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="136"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="135"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="137"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="136"/>
       <c r="L47" s="72"/>
       <c r="M47" s="74"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="110"/>
+      <c r="N47" s="107"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="109"/>
       <c r="R47" s="76"/>
-      <c r="S47" s="111"/>
+      <c r="S47" s="110"/>
       <c r="T47" s="76"/>
-      <c r="U47" s="111"/>
+      <c r="U47" s="110"/>
       <c r="V47" s="76"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="71"/>
       <c r="C48" s="72"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="136"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="72"/>
       <c r="H48" s="72"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="137"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="136"/>
       <c r="L48" s="72"/>
       <c r="M48" s="74"/>
-      <c r="N48" s="108"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="110"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="107"/>
+      <c r="Q48" s="109"/>
       <c r="R48" s="76"/>
-      <c r="S48" s="111"/>
+      <c r="S48" s="110"/>
       <c r="T48" s="76"/>
-      <c r="U48" s="111"/>
+      <c r="U48" s="110"/>
       <c r="V48" s="76"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="71"/>
       <c r="C49" s="72"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="136"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="135"/>
       <c r="G49" s="72"/>
       <c r="H49" s="72"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="137"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="136"/>
       <c r="L49" s="72"/>
       <c r="M49" s="74"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="109"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="110"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="107"/>
+      <c r="Q49" s="109"/>
       <c r="R49" s="76"/>
-      <c r="S49" s="111"/>
+      <c r="S49" s="110"/>
       <c r="T49" s="76"/>
-      <c r="U49" s="111"/>
+      <c r="U49" s="110"/>
       <c r="V49" s="76"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="71"/>
       <c r="C50" s="72"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="136"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="135"/>
       <c r="G50" s="72"/>
       <c r="H50" s="72"/>
-      <c r="I50" s="110"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="137"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="136"/>
       <c r="L50" s="72"/>
       <c r="M50" s="74"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="110"/>
+      <c r="N50" s="107"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="107"/>
+      <c r="Q50" s="109"/>
       <c r="R50" s="76"/>
-      <c r="S50" s="111"/>
+      <c r="S50" s="110"/>
       <c r="T50" s="76"/>
-      <c r="U50" s="111"/>
+      <c r="U50" s="110"/>
       <c r="V50" s="76"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="71"/>
       <c r="C51" s="72"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="136"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="135"/>
       <c r="G51" s="72"/>
       <c r="H51" s="72"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="137"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="136"/>
       <c r="L51" s="72"/>
       <c r="M51" s="74"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="109"/>
-      <c r="P51" s="108"/>
-      <c r="Q51" s="110"/>
+      <c r="N51" s="107"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="107"/>
+      <c r="Q51" s="109"/>
       <c r="R51" s="76"/>
-      <c r="S51" s="111"/>
+      <c r="S51" s="110"/>
       <c r="T51" s="76"/>
-      <c r="U51" s="111"/>
+      <c r="U51" s="110"/>
       <c r="V51" s="76"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="71"/>
       <c r="C52" s="72"/>
-      <c r="D52" s="135"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="136"/>
+      <c r="D52" s="134"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="135"/>
       <c r="G52" s="72"/>
       <c r="H52" s="72"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="136"/>
-      <c r="K52" s="137"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="135"/>
+      <c r="K52" s="136"/>
       <c r="L52" s="72"/>
       <c r="M52" s="74"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="109"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="110"/>
+      <c r="N52" s="107"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="109"/>
       <c r="R52" s="76"/>
-      <c r="S52" s="111"/>
+      <c r="S52" s="110"/>
       <c r="T52" s="76"/>
-      <c r="U52" s="111"/>
+      <c r="U52" s="110"/>
       <c r="V52" s="76"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="136"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="135"/>
       <c r="G53" s="72"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="137"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="136"/>
       <c r="L53" s="72"/>
       <c r="M53" s="74"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="110"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="109"/>
       <c r="R53" s="76"/>
-      <c r="S53" s="111"/>
+      <c r="S53" s="110"/>
       <c r="T53" s="76"/>
-      <c r="U53" s="111"/>
+      <c r="U53" s="110"/>
       <c r="V53" s="76"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
-      <c r="D54" s="135"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="136"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="135"/>
       <c r="G54" s="72"/>
       <c r="H54" s="72"/>
-      <c r="I54" s="110"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="137"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="136"/>
       <c r="L54" s="72"/>
       <c r="M54" s="74"/>
-      <c r="N54" s="108"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="110"/>
+      <c r="N54" s="107"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="107"/>
+      <c r="Q54" s="109"/>
       <c r="R54" s="76"/>
-      <c r="S54" s="111"/>
+      <c r="S54" s="110"/>
       <c r="T54" s="76"/>
-      <c r="U54" s="111"/>
+      <c r="U54" s="110"/>
       <c r="V54" s="76"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="71"/>
       <c r="C55" s="72"/>
-      <c r="D55" s="135"/>
-      <c r="E55" s="148"/>
-      <c r="F55" s="136"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="135"/>
       <c r="G55" s="72"/>
       <c r="H55" s="72"/>
-      <c r="I55" s="110"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="137"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="136"/>
       <c r="L55" s="72"/>
       <c r="M55" s="74"/>
-      <c r="N55" s="108"/>
-      <c r="O55" s="109"/>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="110"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="109"/>
       <c r="R55" s="76"/>
-      <c r="S55" s="111"/>
+      <c r="S55" s="110"/>
       <c r="T55" s="76"/>
-      <c r="U55" s="111"/>
+      <c r="U55" s="110"/>
       <c r="V55" s="76"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="71"/>
       <c r="C56" s="72"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="148"/>
-      <c r="F56" s="136"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="135"/>
       <c r="G56" s="72"/>
       <c r="H56" s="72"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="137"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="136"/>
       <c r="L56" s="72"/>
       <c r="M56" s="74"/>
-      <c r="N56" s="108"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="110"/>
+      <c r="N56" s="107"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="109"/>
       <c r="R56" s="76"/>
-      <c r="S56" s="111"/>
+      <c r="S56" s="110"/>
       <c r="T56" s="76"/>
-      <c r="U56" s="111"/>
+      <c r="U56" s="110"/>
       <c r="V56" s="76"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="71"/>
       <c r="C57" s="72"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="148"/>
-      <c r="F57" s="136"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="72"/>
       <c r="H57" s="72"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="137"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="136"/>
       <c r="L57" s="72"/>
       <c r="M57" s="74"/>
-      <c r="N57" s="108"/>
-      <c r="O57" s="109"/>
-      <c r="P57" s="108"/>
-      <c r="Q57" s="110"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="107"/>
+      <c r="Q57" s="109"/>
       <c r="R57" s="76"/>
-      <c r="S57" s="111"/>
+      <c r="S57" s="110"/>
       <c r="T57" s="76"/>
-      <c r="U57" s="111"/>
+      <c r="U57" s="110"/>
       <c r="V57" s="76"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="71"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="136"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="135"/>
       <c r="G58" s="72"/>
       <c r="H58" s="72"/>
-      <c r="I58" s="110"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="137"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="135"/>
+      <c r="K58" s="136"/>
       <c r="L58" s="72"/>
       <c r="M58" s="74"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="108"/>
-      <c r="Q58" s="110"/>
+      <c r="N58" s="107"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="107"/>
+      <c r="Q58" s="109"/>
       <c r="R58" s="76"/>
-      <c r="S58" s="111"/>
+      <c r="S58" s="110"/>
       <c r="T58" s="76"/>
-      <c r="U58" s="111"/>
+      <c r="U58" s="110"/>
       <c r="V58" s="76"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="71"/>
       <c r="C59" s="72"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="148"/>
-      <c r="F59" s="136"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="147"/>
+      <c r="F59" s="135"/>
       <c r="G59" s="72"/>
       <c r="H59" s="72"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="137"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="135"/>
+      <c r="K59" s="136"/>
       <c r="L59" s="72"/>
       <c r="M59" s="74"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="109"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="110"/>
+      <c r="N59" s="107"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="107"/>
+      <c r="Q59" s="109"/>
       <c r="R59" s="76"/>
-      <c r="S59" s="111"/>
+      <c r="S59" s="110"/>
       <c r="T59" s="76"/>
-      <c r="U59" s="111"/>
+      <c r="U59" s="110"/>
       <c r="V59" s="76"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
-      <c r="D60" s="135"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="136"/>
+      <c r="D60" s="134"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="135"/>
       <c r="G60" s="72"/>
       <c r="H60" s="72"/>
-      <c r="I60" s="110"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="137"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="136"/>
       <c r="L60" s="72"/>
       <c r="M60" s="74"/>
-      <c r="N60" s="108"/>
-      <c r="O60" s="109"/>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="110"/>
+      <c r="N60" s="107"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="107"/>
+      <c r="Q60" s="109"/>
       <c r="R60" s="76"/>
-      <c r="S60" s="111"/>
+      <c r="S60" s="110"/>
       <c r="T60" s="76"/>
-      <c r="U60" s="111"/>
+      <c r="U60" s="110"/>
       <c r="V60" s="76"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="71"/>
       <c r="C61" s="72"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="136"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="135"/>
       <c r="G61" s="72"/>
       <c r="H61" s="72"/>
-      <c r="I61" s="110"/>
-      <c r="J61" s="136"/>
-      <c r="K61" s="137"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="136"/>
       <c r="L61" s="72"/>
       <c r="M61" s="74"/>
-      <c r="N61" s="108"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="108"/>
-      <c r="Q61" s="110"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="109"/>
       <c r="R61" s="76"/>
-      <c r="S61" s="111"/>
+      <c r="S61" s="110"/>
       <c r="T61" s="76"/>
-      <c r="U61" s="111"/>
+      <c r="U61" s="110"/>
       <c r="V61" s="76"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B62" s="71"/>
       <c r="C62" s="72"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="136"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="135"/>
       <c r="G62" s="72"/>
       <c r="H62" s="72"/>
-      <c r="I62" s="110"/>
-      <c r="J62" s="136"/>
-      <c r="K62" s="137"/>
+      <c r="I62" s="109"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="136"/>
       <c r="L62" s="72"/>
       <c r="M62" s="74"/>
-      <c r="N62" s="108"/>
-      <c r="O62" s="109"/>
-      <c r="P62" s="108"/>
-      <c r="Q62" s="110"/>
+      <c r="N62" s="107"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="107"/>
+      <c r="Q62" s="109"/>
       <c r="R62" s="76"/>
-      <c r="S62" s="111"/>
+      <c r="S62" s="110"/>
       <c r="T62" s="76"/>
-      <c r="U62" s="111"/>
+      <c r="U62" s="110"/>
       <c r="V62" s="76"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B63" s="71"/>
       <c r="C63" s="72"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="136"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="135"/>
       <c r="G63" s="72"/>
       <c r="H63" s="72"/>
-      <c r="I63" s="110"/>
-      <c r="J63" s="136"/>
-      <c r="K63" s="137"/>
+      <c r="I63" s="109"/>
+      <c r="J63" s="135"/>
+      <c r="K63" s="136"/>
       <c r="L63" s="72"/>
       <c r="M63" s="74"/>
-      <c r="N63" s="108"/>
-      <c r="O63" s="109"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="110"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="109"/>
       <c r="R63" s="76"/>
-      <c r="S63" s="111"/>
+      <c r="S63" s="110"/>
       <c r="T63" s="76"/>
-      <c r="U63" s="111"/>
+      <c r="U63" s="110"/>
       <c r="V63" s="76"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="136"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="135"/>
       <c r="G64" s="72"/>
       <c r="H64" s="72"/>
-      <c r="I64" s="110"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="137"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="135"/>
+      <c r="K64" s="136"/>
       <c r="L64" s="72"/>
       <c r="M64" s="74"/>
-      <c r="N64" s="108"/>
-      <c r="O64" s="109"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="110"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="109"/>
       <c r="R64" s="76"/>
-      <c r="S64" s="111"/>
+      <c r="S64" s="110"/>
       <c r="T64" s="76"/>
-      <c r="U64" s="111"/>
+      <c r="U64" s="110"/>
       <c r="V64" s="76"/>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" s="71"/>
       <c r="C65" s="72"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="136"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="135"/>
       <c r="G65" s="72"/>
       <c r="H65" s="72"/>
-      <c r="I65" s="110"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="137"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="135"/>
+      <c r="K65" s="136"/>
       <c r="L65" s="72"/>
       <c r="M65" s="74"/>
-      <c r="N65" s="108"/>
-      <c r="O65" s="109"/>
-      <c r="P65" s="108"/>
-      <c r="Q65" s="110"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="109"/>
       <c r="R65" s="76"/>
-      <c r="S65" s="111"/>
+      <c r="S65" s="110"/>
       <c r="T65" s="76"/>
-      <c r="U65" s="111"/>
+      <c r="U65" s="110"/>
       <c r="V65" s="76"/>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" s="71"/>
       <c r="C66" s="72"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="136"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="135"/>
       <c r="G66" s="72"/>
       <c r="H66" s="72"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="136"/>
-      <c r="K66" s="137"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="135"/>
+      <c r="K66" s="136"/>
       <c r="L66" s="72"/>
       <c r="M66" s="74"/>
-      <c r="N66" s="108"/>
-      <c r="O66" s="109"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="110"/>
+      <c r="N66" s="107"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="107"/>
+      <c r="Q66" s="109"/>
       <c r="R66" s="76"/>
-      <c r="S66" s="111"/>
+      <c r="S66" s="110"/>
       <c r="T66" s="76"/>
-      <c r="U66" s="111"/>
+      <c r="U66" s="110"/>
       <c r="V66" s="76"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" s="71"/>
       <c r="C67" s="72"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="136"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="147"/>
+      <c r="F67" s="135"/>
       <c r="G67" s="72"/>
       <c r="H67" s="72"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="136"/>
-      <c r="K67" s="137"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="135"/>
+      <c r="K67" s="136"/>
       <c r="L67" s="72"/>
       <c r="M67" s="74"/>
-      <c r="N67" s="108"/>
-      <c r="O67" s="109"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="110"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="109"/>
       <c r="R67" s="76"/>
-      <c r="S67" s="111"/>
+      <c r="S67" s="110"/>
       <c r="T67" s="76"/>
-      <c r="U67" s="111"/>
+      <c r="U67" s="110"/>
       <c r="V67" s="76"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" s="71"/>
       <c r="C68" s="72"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="136"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="135"/>
       <c r="G68" s="72"/>
       <c r="H68" s="72"/>
-      <c r="I68" s="110"/>
-      <c r="J68" s="136"/>
-      <c r="K68" s="137"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="135"/>
+      <c r="K68" s="136"/>
       <c r="L68" s="72"/>
       <c r="M68" s="74"/>
-      <c r="N68" s="108"/>
-      <c r="O68" s="109"/>
-      <c r="P68" s="108"/>
-      <c r="Q68" s="110"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="109"/>
       <c r="R68" s="76"/>
-      <c r="S68" s="111"/>
+      <c r="S68" s="110"/>
       <c r="T68" s="76"/>
-      <c r="U68" s="111"/>
+      <c r="U68" s="110"/>
       <c r="V68" s="76"/>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="71"/>
       <c r="C69" s="72"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="136"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="135"/>
       <c r="G69" s="72"/>
       <c r="H69" s="72"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="136"/>
-      <c r="K69" s="137"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="135"/>
+      <c r="K69" s="136"/>
       <c r="L69" s="72"/>
       <c r="M69" s="74"/>
-      <c r="N69" s="108"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="110"/>
+      <c r="N69" s="107"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="109"/>
       <c r="R69" s="76"/>
-      <c r="S69" s="111"/>
+      <c r="S69" s="110"/>
       <c r="T69" s="76"/>
-      <c r="U69" s="111"/>
+      <c r="U69" s="110"/>
       <c r="V69" s="76"/>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" s="71"/>
       <c r="C70" s="72"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="136"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="147"/>
+      <c r="F70" s="135"/>
       <c r="G70" s="72"/>
       <c r="H70" s="72"/>
-      <c r="I70" s="110"/>
-      <c r="J70" s="136"/>
-      <c r="K70" s="137"/>
+      <c r="I70" s="109"/>
+      <c r="J70" s="135"/>
+      <c r="K70" s="136"/>
       <c r="L70" s="72"/>
       <c r="M70" s="74"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="109"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="110"/>
+      <c r="N70" s="107"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="109"/>
       <c r="R70" s="76"/>
-      <c r="S70" s="111"/>
+      <c r="S70" s="110"/>
       <c r="T70" s="76"/>
-      <c r="U70" s="111"/>
+      <c r="U70" s="110"/>
       <c r="V70" s="76"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" s="77"/>
       <c r="C71" s="78"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="112"/>
+      <c r="D71" s="111"/>
+      <c r="E71" s="111"/>
       <c r="F71" s="78"/>
       <c r="G71" s="78"/>
       <c r="H71" s="78"/>
-      <c r="I71" s="110"/>
+      <c r="I71" s="109"/>
       <c r="J71" s="78"/>
-      <c r="K71" s="125"/>
+      <c r="K71" s="124"/>
       <c r="L71" s="78"/>
       <c r="M71" s="82"/>
-      <c r="N71" s="113"/>
-      <c r="O71" s="114"/>
-      <c r="P71" s="113"/>
-      <c r="Q71" s="110"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="113"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="109"/>
       <c r="R71" s="82"/>
-      <c r="S71" s="115"/>
+      <c r="S71" s="114"/>
       <c r="T71" s="82"/>
-      <c r="U71" s="115"/>
+      <c r="U71" s="114"/>
       <c r="V71" s="82"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="77"/>
       <c r="C72" s="78"/>
-      <c r="D72" s="112"/>
-      <c r="E72" s="112"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
       <c r="F72" s="78"/>
       <c r="G72" s="78"/>
       <c r="H72" s="78"/>
-      <c r="I72" s="110"/>
+      <c r="I72" s="109"/>
       <c r="J72" s="78"/>
-      <c r="K72" s="125"/>
+      <c r="K72" s="124"/>
       <c r="L72" s="78"/>
       <c r="M72" s="82"/>
-      <c r="N72" s="113"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="113"/>
-      <c r="Q72" s="110"/>
+      <c r="N72" s="112"/>
+      <c r="O72" s="113"/>
+      <c r="P72" s="112"/>
+      <c r="Q72" s="109"/>
       <c r="R72" s="82"/>
-      <c r="S72" s="115"/>
+      <c r="S72" s="114"/>
       <c r="T72" s="82"/>
-      <c r="U72" s="115"/>
+      <c r="U72" s="114"/>
       <c r="V72" s="82"/>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="77"/>
       <c r="C73" s="78"/>
-      <c r="D73" s="112"/>
-      <c r="E73" s="112"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
       <c r="F73" s="78"/>
       <c r="G73" s="78"/>
       <c r="H73" s="78"/>
-      <c r="I73" s="110"/>
+      <c r="I73" s="109"/>
       <c r="J73" s="78"/>
-      <c r="K73" s="125"/>
+      <c r="K73" s="124"/>
       <c r="L73" s="78"/>
       <c r="M73" s="82"/>
-      <c r="N73" s="113"/>
-      <c r="O73" s="114"/>
-      <c r="P73" s="113"/>
-      <c r="Q73" s="110"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="112"/>
+      <c r="Q73" s="109"/>
       <c r="R73" s="82"/>
-      <c r="S73" s="115"/>
+      <c r="S73" s="114"/>
       <c r="T73" s="82"/>
-      <c r="U73" s="115"/>
+      <c r="U73" s="114"/>
       <c r="V73" s="82"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="77"/>
       <c r="C74" s="78"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="112"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="111"/>
       <c r="F74" s="78"/>
       <c r="G74" s="78"/>
       <c r="H74" s="78"/>
-      <c r="I74" s="110"/>
+      <c r="I74" s="109"/>
       <c r="J74" s="78"/>
-      <c r="K74" s="125"/>
+      <c r="K74" s="124"/>
       <c r="L74" s="78"/>
       <c r="M74" s="82"/>
-      <c r="N74" s="113"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="113"/>
-      <c r="Q74" s="110"/>
+      <c r="N74" s="112"/>
+      <c r="O74" s="113"/>
+      <c r="P74" s="112"/>
+      <c r="Q74" s="109"/>
       <c r="R74" s="82"/>
-      <c r="S74" s="115"/>
+      <c r="S74" s="114"/>
       <c r="T74" s="82"/>
-      <c r="U74" s="115"/>
+      <c r="U74" s="114"/>
       <c r="V74" s="82"/>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="77"/>
       <c r="C75" s="78"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="112"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="111"/>
       <c r="F75" s="78"/>
       <c r="G75" s="78"/>
       <c r="H75" s="78"/>
-      <c r="I75" s="110"/>
+      <c r="I75" s="109"/>
       <c r="J75" s="78"/>
-      <c r="K75" s="125"/>
+      <c r="K75" s="124"/>
       <c r="L75" s="78"/>
       <c r="M75" s="82"/>
-      <c r="N75" s="113"/>
-      <c r="O75" s="114"/>
-      <c r="P75" s="113"/>
-      <c r="Q75" s="110"/>
+      <c r="N75" s="112"/>
+      <c r="O75" s="113"/>
+      <c r="P75" s="112"/>
+      <c r="Q75" s="109"/>
       <c r="R75" s="82"/>
-      <c r="S75" s="115"/>
+      <c r="S75" s="114"/>
       <c r="T75" s="82"/>
-      <c r="U75" s="115"/>
+      <c r="U75" s="114"/>
       <c r="V75" s="82"/>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" s="77"/>
       <c r="C76" s="78"/>
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
       <c r="F76" s="78"/>
       <c r="G76" s="78"/>
       <c r="H76" s="78"/>
-      <c r="I76" s="110"/>
+      <c r="I76" s="109"/>
       <c r="J76" s="78"/>
-      <c r="K76" s="125"/>
+      <c r="K76" s="124"/>
       <c r="L76" s="78"/>
       <c r="M76" s="82"/>
-      <c r="N76" s="113"/>
-      <c r="O76" s="114"/>
-      <c r="P76" s="113"/>
-      <c r="Q76" s="110"/>
+      <c r="N76" s="112"/>
+      <c r="O76" s="113"/>
+      <c r="P76" s="112"/>
+      <c r="Q76" s="109"/>
       <c r="R76" s="82"/>
-      <c r="S76" s="115"/>
+      <c r="S76" s="114"/>
       <c r="T76" s="82"/>
-      <c r="U76" s="115"/>
+      <c r="U76" s="114"/>
       <c r="V76" s="82"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" s="77"/>
       <c r="C77" s="78"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
       <c r="F77" s="78"/>
       <c r="G77" s="78"/>
       <c r="H77" s="78"/>
-      <c r="I77" s="110"/>
+      <c r="I77" s="109"/>
       <c r="J77" s="78"/>
-      <c r="K77" s="125"/>
+      <c r="K77" s="124"/>
       <c r="L77" s="78"/>
       <c r="M77" s="82"/>
-      <c r="N77" s="113"/>
-      <c r="O77" s="114"/>
-      <c r="P77" s="113"/>
-      <c r="Q77" s="110"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="113"/>
+      <c r="P77" s="112"/>
+      <c r="Q77" s="109"/>
       <c r="R77" s="82"/>
-      <c r="S77" s="115"/>
+      <c r="S77" s="114"/>
       <c r="T77" s="82"/>
-      <c r="U77" s="115"/>
+      <c r="U77" s="114"/>
       <c r="V77" s="82"/>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B78" s="77"/>
       <c r="C78" s="78"/>
-      <c r="D78" s="112"/>
-      <c r="E78" s="112"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
       <c r="F78" s="78"/>
       <c r="G78" s="78"/>
       <c r="H78" s="78"/>
-      <c r="I78" s="110"/>
+      <c r="I78" s="109"/>
       <c r="J78" s="78"/>
-      <c r="K78" s="125"/>
+      <c r="K78" s="124"/>
       <c r="L78" s="78"/>
       <c r="M78" s="82"/>
-      <c r="N78" s="113"/>
-      <c r="O78" s="114"/>
-      <c r="P78" s="113"/>
-      <c r="Q78" s="110"/>
+      <c r="N78" s="112"/>
+      <c r="O78" s="113"/>
+      <c r="P78" s="112"/>
+      <c r="Q78" s="109"/>
       <c r="R78" s="82"/>
-      <c r="S78" s="115"/>
+      <c r="S78" s="114"/>
       <c r="T78" s="82"/>
-      <c r="U78" s="115"/>
+      <c r="U78" s="114"/>
       <c r="V78" s="82"/>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="77"/>
       <c r="C79" s="78"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="111"/>
       <c r="F79" s="78"/>
       <c r="G79" s="78"/>
       <c r="H79" s="78"/>
-      <c r="I79" s="110"/>
+      <c r="I79" s="109"/>
       <c r="J79" s="78"/>
-      <c r="K79" s="125"/>
+      <c r="K79" s="124"/>
       <c r="L79" s="78"/>
       <c r="M79" s="82"/>
-      <c r="N79" s="113"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="113"/>
-      <c r="Q79" s="110"/>
+      <c r="N79" s="112"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="112"/>
+      <c r="Q79" s="109"/>
       <c r="R79" s="82"/>
-      <c r="S79" s="115"/>
+      <c r="S79" s="114"/>
       <c r="T79" s="82"/>
-      <c r="U79" s="115"/>
+      <c r="U79" s="114"/>
       <c r="V79" s="82"/>
     </row>
     <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" s="77"/>
       <c r="C80" s="78"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="111"/>
       <c r="F80" s="78"/>
       <c r="G80" s="78"/>
       <c r="H80" s="78"/>
-      <c r="I80" s="110"/>
+      <c r="I80" s="109"/>
       <c r="J80" s="78"/>
-      <c r="K80" s="125"/>
+      <c r="K80" s="124"/>
       <c r="L80" s="78"/>
       <c r="M80" s="82"/>
-      <c r="N80" s="113"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="113"/>
-      <c r="Q80" s="110"/>
+      <c r="N80" s="112"/>
+      <c r="O80" s="113"/>
+      <c r="P80" s="112"/>
+      <c r="Q80" s="109"/>
       <c r="R80" s="82"/>
-      <c r="S80" s="115"/>
+      <c r="S80" s="114"/>
       <c r="T80" s="82"/>
-      <c r="U80" s="115"/>
+      <c r="U80" s="114"/>
       <c r="V80" s="82"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B81" s="77"/>
       <c r="C81" s="78"/>
-      <c r="D81" s="112"/>
-      <c r="E81" s="112"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="111"/>
       <c r="F81" s="78"/>
       <c r="G81" s="78"/>
       <c r="H81" s="78"/>
-      <c r="I81" s="110"/>
+      <c r="I81" s="109"/>
       <c r="J81" s="78"/>
-      <c r="K81" s="125"/>
+      <c r="K81" s="124"/>
       <c r="L81" s="78"/>
       <c r="M81" s="82"/>
-      <c r="N81" s="113"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="113"/>
-      <c r="Q81" s="110"/>
+      <c r="N81" s="112"/>
+      <c r="O81" s="113"/>
+      <c r="P81" s="112"/>
+      <c r="Q81" s="109"/>
       <c r="R81" s="82"/>
-      <c r="S81" s="115"/>
+      <c r="S81" s="114"/>
       <c r="T81" s="82"/>
-      <c r="U81" s="115"/>
+      <c r="U81" s="114"/>
       <c r="V81" s="82"/>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B82" s="77"/>
       <c r="C82" s="78"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="112"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
       <c r="F82" s="78"/>
       <c r="G82" s="78"/>
       <c r="H82" s="78"/>
-      <c r="I82" s="110"/>
+      <c r="I82" s="109"/>
       <c r="J82" s="78"/>
-      <c r="K82" s="125"/>
+      <c r="K82" s="124"/>
       <c r="L82" s="78"/>
       <c r="M82" s="82"/>
-      <c r="N82" s="113"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="113"/>
-      <c r="Q82" s="110"/>
+      <c r="N82" s="112"/>
+      <c r="O82" s="113"/>
+      <c r="P82" s="112"/>
+      <c r="Q82" s="109"/>
       <c r="R82" s="82"/>
-      <c r="S82" s="115"/>
+      <c r="S82" s="114"/>
       <c r="T82" s="82"/>
-      <c r="U82" s="115"/>
+      <c r="U82" s="114"/>
       <c r="V82" s="82"/>
     </row>
     <row r="83" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B83" s="77"/>
       <c r="C83" s="78"/>
-      <c r="D83" s="112"/>
-      <c r="E83" s="112"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="111"/>
       <c r="F83" s="78"/>
       <c r="G83" s="78"/>
       <c r="H83" s="78"/>
-      <c r="I83" s="110"/>
+      <c r="I83" s="109"/>
       <c r="J83" s="78"/>
-      <c r="K83" s="125"/>
+      <c r="K83" s="124"/>
       <c r="L83" s="78"/>
       <c r="M83" s="82"/>
-      <c r="N83" s="113"/>
-      <c r="O83" s="114"/>
-      <c r="P83" s="113"/>
-      <c r="Q83" s="110"/>
+      <c r="N83" s="112"/>
+      <c r="O83" s="113"/>
+      <c r="P83" s="112"/>
+      <c r="Q83" s="109"/>
       <c r="R83" s="82"/>
-      <c r="S83" s="115"/>
+      <c r="S83" s="114"/>
       <c r="T83" s="82"/>
-      <c r="U83" s="115"/>
+      <c r="U83" s="114"/>
       <c r="V83" s="82"/>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B84" s="77"/>
       <c r="C84" s="78"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="112"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="111"/>
       <c r="F84" s="78"/>
       <c r="G84" s="78"/>
       <c r="H84" s="78"/>
-      <c r="I84" s="110"/>
+      <c r="I84" s="109"/>
       <c r="J84" s="78"/>
-      <c r="K84" s="125"/>
+      <c r="K84" s="124"/>
       <c r="L84" s="78"/>
       <c r="M84" s="82"/>
-      <c r="N84" s="113"/>
-      <c r="O84" s="114"/>
-      <c r="P84" s="113"/>
-      <c r="Q84" s="110"/>
+      <c r="N84" s="112"/>
+      <c r="O84" s="113"/>
+      <c r="P84" s="112"/>
+      <c r="Q84" s="109"/>
       <c r="R84" s="82"/>
-      <c r="S84" s="115"/>
+      <c r="S84" s="114"/>
       <c r="T84" s="82"/>
-      <c r="U84" s="115"/>
+      <c r="U84" s="114"/>
       <c r="V84" s="82"/>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B85" s="77"/>
       <c r="C85" s="78"/>
-      <c r="D85" s="112"/>
-      <c r="E85" s="112"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
       <c r="F85" s="78"/>
       <c r="G85" s="78"/>
       <c r="H85" s="78"/>
-      <c r="I85" s="110"/>
+      <c r="I85" s="109"/>
       <c r="J85" s="78"/>
-      <c r="K85" s="125"/>
+      <c r="K85" s="124"/>
       <c r="L85" s="78"/>
       <c r="M85" s="82"/>
-      <c r="N85" s="113"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="113"/>
-      <c r="Q85" s="110"/>
+      <c r="N85" s="112"/>
+      <c r="O85" s="113"/>
+      <c r="P85" s="112"/>
+      <c r="Q85" s="109"/>
       <c r="R85" s="82"/>
-      <c r="S85" s="115"/>
+      <c r="S85" s="114"/>
       <c r="T85" s="82"/>
-      <c r="U85" s="115"/>
+      <c r="U85" s="114"/>
       <c r="V85" s="82"/>
     </row>
     <row r="86" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B86" s="77"/>
       <c r="C86" s="78"/>
-      <c r="D86" s="112"/>
-      <c r="E86" s="112"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
       <c r="F86" s="78"/>
       <c r="G86" s="78"/>
       <c r="H86" s="78"/>
-      <c r="I86" s="110"/>
+      <c r="I86" s="109"/>
       <c r="J86" s="78"/>
-      <c r="K86" s="125"/>
+      <c r="K86" s="124"/>
       <c r="L86" s="78"/>
       <c r="M86" s="82"/>
-      <c r="N86" s="113"/>
-      <c r="O86" s="114"/>
-      <c r="P86" s="113"/>
-      <c r="Q86" s="110"/>
+      <c r="N86" s="112"/>
+      <c r="O86" s="113"/>
+      <c r="P86" s="112"/>
+      <c r="Q86" s="109"/>
       <c r="R86" s="82"/>
-      <c r="S86" s="115"/>
+      <c r="S86" s="114"/>
       <c r="T86" s="82"/>
-      <c r="U86" s="115"/>
+      <c r="U86" s="114"/>
       <c r="V86" s="82"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B87" s="77"/>
       <c r="C87" s="78"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="111"/>
       <c r="F87" s="78"/>
       <c r="G87" s="78"/>
       <c r="H87" s="78"/>
-      <c r="I87" s="110"/>
+      <c r="I87" s="109"/>
       <c r="J87" s="78"/>
-      <c r="K87" s="127"/>
+      <c r="K87" s="126"/>
       <c r="L87" s="78"/>
       <c r="M87" s="82"/>
-      <c r="N87" s="113"/>
-      <c r="O87" s="114"/>
-      <c r="P87" s="113"/>
-      <c r="Q87" s="110"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="113"/>
+      <c r="P87" s="112"/>
+      <c r="Q87" s="109"/>
       <c r="R87" s="82"/>
-      <c r="S87" s="115"/>
+      <c r="S87" s="114"/>
       <c r="T87" s="82"/>
-      <c r="U87" s="115"/>
+      <c r="U87" s="114"/>
       <c r="V87" s="82"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B88" s="77"/>
       <c r="C88" s="78"/>
-      <c r="D88" s="112"/>
-      <c r="E88" s="112"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="111"/>
       <c r="F88" s="78"/>
       <c r="G88" s="78"/>
       <c r="H88" s="78"/>
-      <c r="I88" s="110"/>
+      <c r="I88" s="109"/>
       <c r="J88" s="78"/>
-      <c r="K88" s="125"/>
+      <c r="K88" s="124"/>
       <c r="L88" s="78"/>
       <c r="M88" s="82"/>
-      <c r="N88" s="113"/>
-      <c r="O88" s="114"/>
-      <c r="P88" s="113"/>
-      <c r="Q88" s="110"/>
+      <c r="N88" s="112"/>
+      <c r="O88" s="113"/>
+      <c r="P88" s="112"/>
+      <c r="Q88" s="109"/>
       <c r="R88" s="82"/>
-      <c r="S88" s="115"/>
+      <c r="S88" s="114"/>
       <c r="T88" s="82"/>
-      <c r="U88" s="115"/>
+      <c r="U88" s="114"/>
       <c r="V88" s="82"/>
     </row>
     <row r="89" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B89" s="71"/>
       <c r="C89" s="72"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="148"/>
-      <c r="F89" s="136"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="135"/>
       <c r="G89" s="72"/>
       <c r="H89" s="72"/>
-      <c r="I89" s="110"/>
-      <c r="J89" s="136"/>
-      <c r="K89" s="137"/>
+      <c r="I89" s="109"/>
+      <c r="J89" s="135"/>
+      <c r="K89" s="136"/>
       <c r="L89" s="72"/>
       <c r="M89" s="74"/>
-      <c r="N89" s="108"/>
-      <c r="O89" s="109"/>
-      <c r="P89" s="108"/>
-      <c r="Q89" s="110"/>
+      <c r="N89" s="107"/>
+      <c r="O89" s="108"/>
+      <c r="P89" s="107"/>
+      <c r="Q89" s="109"/>
       <c r="R89" s="76"/>
-      <c r="S89" s="111"/>
+      <c r="S89" s="110"/>
       <c r="T89" s="76"/>
-      <c r="U89" s="111"/>
+      <c r="U89" s="110"/>
       <c r="V89" s="76"/>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B90" s="71"/>
       <c r="C90" s="72"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="148"/>
-      <c r="F90" s="136"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="147"/>
+      <c r="F90" s="135"/>
       <c r="G90" s="72"/>
       <c r="H90" s="72"/>
-      <c r="I90" s="110"/>
-      <c r="J90" s="136"/>
-      <c r="K90" s="137"/>
+      <c r="I90" s="109"/>
+      <c r="J90" s="135"/>
+      <c r="K90" s="136"/>
       <c r="L90" s="72"/>
       <c r="M90" s="74"/>
-      <c r="N90" s="108"/>
-      <c r="O90" s="109"/>
-      <c r="P90" s="108"/>
-      <c r="Q90" s="110"/>
+      <c r="N90" s="107"/>
+      <c r="O90" s="108"/>
+      <c r="P90" s="107"/>
+      <c r="Q90" s="109"/>
       <c r="R90" s="76"/>
-      <c r="S90" s="111"/>
+      <c r="S90" s="110"/>
       <c r="T90" s="76"/>
-      <c r="U90" s="111"/>
+      <c r="U90" s="110"/>
       <c r="V90" s="76"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B91" s="71"/>
       <c r="C91" s="72"/>
-      <c r="D91" s="135"/>
-      <c r="E91" s="148"/>
-      <c r="F91" s="136"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="135"/>
       <c r="G91" s="72"/>
       <c r="H91" s="72"/>
-      <c r="I91" s="110"/>
-      <c r="J91" s="136"/>
-      <c r="K91" s="137"/>
+      <c r="I91" s="109"/>
+      <c r="J91" s="135"/>
+      <c r="K91" s="136"/>
       <c r="L91" s="72"/>
       <c r="M91" s="74"/>
-      <c r="N91" s="108"/>
-      <c r="O91" s="109"/>
-      <c r="P91" s="108"/>
-      <c r="Q91" s="110"/>
+      <c r="N91" s="107"/>
+      <c r="O91" s="108"/>
+      <c r="P91" s="107"/>
+      <c r="Q91" s="109"/>
       <c r="R91" s="76"/>
-      <c r="S91" s="111"/>
+      <c r="S91" s="110"/>
       <c r="T91" s="76"/>
-      <c r="U91" s="111"/>
+      <c r="U91" s="110"/>
       <c r="V91" s="76"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B92" s="71"/>
       <c r="C92" s="72"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="148"/>
-      <c r="F92" s="136"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="147"/>
+      <c r="F92" s="135"/>
       <c r="G92" s="72"/>
       <c r="H92" s="72"/>
-      <c r="I92" s="110"/>
-      <c r="J92" s="136"/>
-      <c r="K92" s="137"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="135"/>
+      <c r="K92" s="136"/>
       <c r="L92" s="72"/>
       <c r="M92" s="74"/>
-      <c r="N92" s="108"/>
-      <c r="O92" s="109"/>
-      <c r="P92" s="108"/>
-      <c r="Q92" s="110"/>
+      <c r="N92" s="107"/>
+      <c r="O92" s="108"/>
+      <c r="P92" s="107"/>
+      <c r="Q92" s="109"/>
       <c r="R92" s="76"/>
-      <c r="S92" s="111"/>
+      <c r="S92" s="110"/>
       <c r="T92" s="76"/>
-      <c r="U92" s="111"/>
+      <c r="U92" s="110"/>
       <c r="V92" s="76"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B93" s="71"/>
       <c r="C93" s="72"/>
-      <c r="D93" s="135"/>
-      <c r="E93" s="148"/>
-      <c r="F93" s="136"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="147"/>
+      <c r="F93" s="135"/>
       <c r="G93" s="72"/>
       <c r="H93" s="72"/>
-      <c r="I93" s="110"/>
-      <c r="J93" s="136"/>
-      <c r="K93" s="137"/>
+      <c r="I93" s="109"/>
+      <c r="J93" s="135"/>
+      <c r="K93" s="136"/>
       <c r="L93" s="72"/>
       <c r="M93" s="74"/>
-      <c r="N93" s="108"/>
-      <c r="O93" s="109"/>
-      <c r="P93" s="108"/>
-      <c r="Q93" s="110"/>
+      <c r="N93" s="107"/>
+      <c r="O93" s="108"/>
+      <c r="P93" s="107"/>
+      <c r="Q93" s="109"/>
       <c r="R93" s="76"/>
-      <c r="S93" s="111"/>
+      <c r="S93" s="110"/>
       <c r="T93" s="76"/>
-      <c r="U93" s="111"/>
+      <c r="U93" s="110"/>
       <c r="V93" s="76"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B94" s="71"/>
       <c r="C94" s="72"/>
-      <c r="D94" s="135"/>
-      <c r="E94" s="148"/>
-      <c r="F94" s="136"/>
+      <c r="D94" s="134"/>
+      <c r="E94" s="147"/>
+      <c r="F94" s="135"/>
       <c r="G94" s="72"/>
       <c r="H94" s="72"/>
-      <c r="I94" s="110"/>
-      <c r="J94" s="136"/>
-      <c r="K94" s="137"/>
+      <c r="I94" s="109"/>
+      <c r="J94" s="135"/>
+      <c r="K94" s="136"/>
       <c r="L94" s="72"/>
       <c r="M94" s="74"/>
-      <c r="N94" s="108"/>
-      <c r="O94" s="109"/>
-      <c r="P94" s="108"/>
-      <c r="Q94" s="110"/>
+      <c r="N94" s="107"/>
+      <c r="O94" s="108"/>
+      <c r="P94" s="107"/>
+      <c r="Q94" s="109"/>
       <c r="R94" s="76"/>
-      <c r="S94" s="111"/>
+      <c r="S94" s="110"/>
       <c r="T94" s="76"/>
-      <c r="U94" s="111"/>
+      <c r="U94" s="110"/>
       <c r="V94" s="76"/>
     </row>
     <row r="95" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B95" s="71"/>
       <c r="C95" s="72"/>
-      <c r="D95" s="135"/>
-      <c r="E95" s="148"/>
-      <c r="F95" s="136"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="147"/>
+      <c r="F95" s="135"/>
       <c r="G95" s="72"/>
       <c r="H95" s="72"/>
-      <c r="I95" s="110"/>
-      <c r="J95" s="136"/>
-      <c r="K95" s="137"/>
+      <c r="I95" s="109"/>
+      <c r="J95" s="135"/>
+      <c r="K95" s="136"/>
       <c r="L95" s="72"/>
       <c r="M95" s="74"/>
-      <c r="N95" s="108"/>
-      <c r="O95" s="109"/>
-      <c r="P95" s="108"/>
-      <c r="Q95" s="110"/>
+      <c r="N95" s="107"/>
+      <c r="O95" s="108"/>
+      <c r="P95" s="107"/>
+      <c r="Q95" s="109"/>
       <c r="R95" s="76"/>
-      <c r="S95" s="111"/>
+      <c r="S95" s="110"/>
       <c r="T95" s="76"/>
-      <c r="U95" s="111"/>
+      <c r="U95" s="110"/>
       <c r="V95" s="76"/>
     </row>
     <row r="96" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B96" s="71"/>
       <c r="C96" s="72"/>
-      <c r="D96" s="135"/>
-      <c r="E96" s="148"/>
-      <c r="F96" s="136"/>
+      <c r="D96" s="134"/>
+      <c r="E96" s="147"/>
+      <c r="F96" s="135"/>
       <c r="G96" s="72"/>
       <c r="H96" s="72"/>
-      <c r="I96" s="110"/>
-      <c r="J96" s="136"/>
-      <c r="K96" s="137"/>
+      <c r="I96" s="109"/>
+      <c r="J96" s="135"/>
+      <c r="K96" s="136"/>
       <c r="L96" s="72"/>
       <c r="M96" s="74"/>
-      <c r="N96" s="108"/>
-      <c r="O96" s="109"/>
-      <c r="P96" s="108"/>
-      <c r="Q96" s="110"/>
+      <c r="N96" s="107"/>
+      <c r="O96" s="108"/>
+      <c r="P96" s="107"/>
+      <c r="Q96" s="109"/>
       <c r="R96" s="76"/>
-      <c r="S96" s="111"/>
+      <c r="S96" s="110"/>
       <c r="T96" s="76"/>
-      <c r="U96" s="111"/>
+      <c r="U96" s="110"/>
       <c r="V96" s="76"/>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B97" s="71"/>
       <c r="C97" s="72"/>
-      <c r="D97" s="135"/>
-      <c r="E97" s="148"/>
-      <c r="F97" s="136"/>
+      <c r="D97" s="134"/>
+      <c r="E97" s="147"/>
+      <c r="F97" s="135"/>
       <c r="G97" s="72"/>
       <c r="H97" s="72"/>
-      <c r="I97" s="110"/>
-      <c r="J97" s="136"/>
-      <c r="K97" s="137"/>
+      <c r="I97" s="109"/>
+      <c r="J97" s="135"/>
+      <c r="K97" s="136"/>
       <c r="L97" s="72"/>
       <c r="M97" s="74"/>
-      <c r="N97" s="108"/>
-      <c r="O97" s="109"/>
-      <c r="P97" s="108"/>
-      <c r="Q97" s="110"/>
+      <c r="N97" s="107"/>
+      <c r="O97" s="108"/>
+      <c r="P97" s="107"/>
+      <c r="Q97" s="109"/>
       <c r="R97" s="76"/>
-      <c r="S97" s="111"/>
+      <c r="S97" s="110"/>
       <c r="T97" s="76"/>
-      <c r="U97" s="111"/>
+      <c r="U97" s="110"/>
       <c r="V97" s="76"/>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B98" s="71"/>
       <c r="C98" s="72"/>
-      <c r="D98" s="135"/>
-      <c r="E98" s="148"/>
-      <c r="F98" s="136"/>
+      <c r="D98" s="134"/>
+      <c r="E98" s="147"/>
+      <c r="F98" s="135"/>
       <c r="G98" s="72"/>
       <c r="H98" s="72"/>
-      <c r="I98" s="110"/>
-      <c r="J98" s="136"/>
-      <c r="K98" s="137"/>
+      <c r="I98" s="109"/>
+      <c r="J98" s="135"/>
+      <c r="K98" s="136"/>
       <c r="L98" s="72"/>
       <c r="M98" s="74"/>
-      <c r="N98" s="108"/>
-      <c r="O98" s="109"/>
-      <c r="P98" s="108"/>
-      <c r="Q98" s="110"/>
+      <c r="N98" s="107"/>
+      <c r="O98" s="108"/>
+      <c r="P98" s="107"/>
+      <c r="Q98" s="109"/>
       <c r="R98" s="76"/>
-      <c r="S98" s="111"/>
+      <c r="S98" s="110"/>
       <c r="T98" s="76"/>
-      <c r="U98" s="111"/>
+      <c r="U98" s="110"/>
       <c r="V98" s="76"/>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B99" s="71"/>
       <c r="C99" s="72"/>
-      <c r="D99" s="135"/>
-      <c r="E99" s="148"/>
-      <c r="F99" s="136"/>
+      <c r="D99" s="134"/>
+      <c r="E99" s="147"/>
+      <c r="F99" s="135"/>
       <c r="G99" s="72"/>
       <c r="H99" s="72"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="136"/>
-      <c r="K99" s="137"/>
+      <c r="I99" s="109"/>
+      <c r="J99" s="135"/>
+      <c r="K99" s="136"/>
       <c r="L99" s="72"/>
       <c r="M99" s="74"/>
-      <c r="N99" s="108"/>
-      <c r="O99" s="109"/>
-      <c r="P99" s="108"/>
-      <c r="Q99" s="110"/>
+      <c r="N99" s="107"/>
+      <c r="O99" s="108"/>
+      <c r="P99" s="107"/>
+      <c r="Q99" s="109"/>
       <c r="R99" s="76"/>
-      <c r="S99" s="111"/>
+      <c r="S99" s="110"/>
       <c r="T99" s="76"/>
-      <c r="U99" s="111"/>
+      <c r="U99" s="110"/>
       <c r="V99" s="76"/>
     </row>
     <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B100" s="71"/>
       <c r="C100" s="72"/>
-      <c r="D100" s="135"/>
-      <c r="E100" s="148"/>
-      <c r="F100" s="136"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="147"/>
+      <c r="F100" s="135"/>
       <c r="G100" s="72"/>
       <c r="H100" s="72"/>
-      <c r="I100" s="110"/>
-      <c r="J100" s="136"/>
-      <c r="K100" s="137"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="135"/>
+      <c r="K100" s="136"/>
       <c r="L100" s="72"/>
       <c r="M100" s="74"/>
-      <c r="N100" s="108"/>
-      <c r="O100" s="109"/>
-      <c r="P100" s="108"/>
-      <c r="Q100" s="110"/>
+      <c r="N100" s="107"/>
+      <c r="O100" s="108"/>
+      <c r="P100" s="107"/>
+      <c r="Q100" s="109"/>
       <c r="R100" s="76"/>
-      <c r="S100" s="111"/>
+      <c r="S100" s="110"/>
       <c r="T100" s="76"/>
-      <c r="U100" s="111"/>
+      <c r="U100" s="110"/>
       <c r="V100" s="76"/>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B101" s="71"/>
       <c r="C101" s="72"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="148"/>
-      <c r="F101" s="136"/>
+      <c r="D101" s="134"/>
+      <c r="E101" s="147"/>
+      <c r="F101" s="135"/>
       <c r="G101" s="72"/>
       <c r="H101" s="72"/>
-      <c r="I101" s="110"/>
-      <c r="J101" s="136"/>
-      <c r="K101" s="137"/>
+      <c r="I101" s="109"/>
+      <c r="J101" s="135"/>
+      <c r="K101" s="136"/>
       <c r="L101" s="72"/>
       <c r="M101" s="74"/>
-      <c r="N101" s="108"/>
-      <c r="O101" s="109"/>
-      <c r="P101" s="108"/>
-      <c r="Q101" s="110"/>
+      <c r="N101" s="107"/>
+      <c r="O101" s="108"/>
+      <c r="P101" s="107"/>
+      <c r="Q101" s="109"/>
       <c r="R101" s="76"/>
-      <c r="S101" s="111"/>
+      <c r="S101" s="110"/>
       <c r="T101" s="76"/>
-      <c r="U101" s="111"/>
+      <c r="U101" s="110"/>
       <c r="V101" s="76"/>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B102" s="71"/>
       <c r="C102" s="72"/>
-      <c r="D102" s="135"/>
-      <c r="E102" s="148"/>
-      <c r="F102" s="136"/>
+      <c r="D102" s="134"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="135"/>
       <c r="G102" s="72"/>
       <c r="H102" s="72"/>
-      <c r="I102" s="110"/>
-      <c r="J102" s="136"/>
-      <c r="K102" s="137"/>
+      <c r="I102" s="109"/>
+      <c r="J102" s="135"/>
+      <c r="K102" s="136"/>
       <c r="L102" s="72"/>
       <c r="M102" s="74"/>
-      <c r="N102" s="108"/>
-      <c r="O102" s="109"/>
-      <c r="P102" s="108"/>
-      <c r="Q102" s="110"/>
+      <c r="N102" s="107"/>
+      <c r="O102" s="108"/>
+      <c r="P102" s="107"/>
+      <c r="Q102" s="109"/>
       <c r="R102" s="76"/>
-      <c r="S102" s="111"/>
+      <c r="S102" s="110"/>
       <c r="T102" s="76"/>
-      <c r="U102" s="111"/>
+      <c r="U102" s="110"/>
       <c r="V102" s="76"/>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B103" s="77"/>
       <c r="C103" s="78"/>
-      <c r="D103" s="112"/>
-      <c r="E103" s="112"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
       <c r="F103" s="78"/>
       <c r="G103" s="78"/>
       <c r="H103" s="78"/>
-      <c r="I103" s="110"/>
+      <c r="I103" s="109"/>
       <c r="J103" s="78"/>
-      <c r="K103" s="125"/>
+      <c r="K103" s="124"/>
       <c r="L103" s="78"/>
       <c r="M103" s="82"/>
-      <c r="N103" s="113"/>
-      <c r="O103" s="114"/>
-      <c r="P103" s="113"/>
-      <c r="Q103" s="110"/>
+      <c r="N103" s="112"/>
+      <c r="O103" s="113"/>
+      <c r="P103" s="112"/>
+      <c r="Q103" s="109"/>
       <c r="R103" s="82"/>
-      <c r="S103" s="115"/>
+      <c r="S103" s="114"/>
       <c r="T103" s="82"/>
-      <c r="U103" s="115"/>
+      <c r="U103" s="114"/>
       <c r="V103" s="82"/>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B104" s="77"/>
       <c r="C104" s="78"/>
-      <c r="D104" s="112"/>
-      <c r="E104" s="112"/>
+      <c r="D104" s="111"/>
+      <c r="E104" s="111"/>
       <c r="F104" s="78"/>
       <c r="G104" s="78"/>
       <c r="H104" s="78"/>
-      <c r="I104" s="110"/>
+      <c r="I104" s="109"/>
       <c r="J104" s="78"/>
-      <c r="K104" s="125"/>
+      <c r="K104" s="124"/>
       <c r="L104" s="78"/>
       <c r="M104" s="82"/>
-      <c r="N104" s="113"/>
-      <c r="O104" s="114"/>
-      <c r="P104" s="113"/>
-      <c r="Q104" s="110"/>
+      <c r="N104" s="112"/>
+      <c r="O104" s="113"/>
+      <c r="P104" s="112"/>
+      <c r="Q104" s="109"/>
       <c r="R104" s="82"/>
-      <c r="S104" s="115"/>
+      <c r="S104" s="114"/>
       <c r="T104" s="82"/>
-      <c r="U104" s="115"/>
+      <c r="U104" s="114"/>
       <c r="V104" s="82"/>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B105" s="77"/>
       <c r="C105" s="78"/>
-      <c r="D105" s="112"/>
-      <c r="E105" s="112"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
       <c r="F105" s="78"/>
       <c r="G105" s="78"/>
       <c r="H105" s="78"/>
-      <c r="I105" s="110"/>
+      <c r="I105" s="109"/>
       <c r="J105" s="78"/>
-      <c r="K105" s="125"/>
+      <c r="K105" s="124"/>
       <c r="L105" s="78"/>
       <c r="M105" s="82"/>
-      <c r="N105" s="113"/>
-      <c r="O105" s="114"/>
-      <c r="P105" s="113"/>
-      <c r="Q105" s="110"/>
+      <c r="N105" s="112"/>
+      <c r="O105" s="113"/>
+      <c r="P105" s="112"/>
+      <c r="Q105" s="109"/>
       <c r="R105" s="82"/>
-      <c r="S105" s="115"/>
+      <c r="S105" s="114"/>
       <c r="T105" s="82"/>
-      <c r="U105" s="115"/>
+      <c r="U105" s="114"/>
       <c r="V105" s="82"/>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B106" s="77"/>
       <c r="C106" s="78"/>
-      <c r="D106" s="112"/>
-      <c r="E106" s="112"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
       <c r="F106" s="78"/>
       <c r="G106" s="78"/>
       <c r="H106" s="78"/>
-      <c r="I106" s="110"/>
+      <c r="I106" s="109"/>
       <c r="J106" s="78"/>
-      <c r="K106" s="125"/>
+      <c r="K106" s="124"/>
       <c r="L106" s="78"/>
       <c r="M106" s="82"/>
-      <c r="N106" s="113"/>
-      <c r="O106" s="114"/>
-      <c r="P106" s="113"/>
-      <c r="Q106" s="110"/>
+      <c r="N106" s="112"/>
+      <c r="O106" s="113"/>
+      <c r="P106" s="112"/>
+      <c r="Q106" s="109"/>
       <c r="R106" s="82"/>
-      <c r="S106" s="115"/>
+      <c r="S106" s="114"/>
       <c r="T106" s="82"/>
-      <c r="U106" s="115"/>
+      <c r="U106" s="114"/>
       <c r="V106" s="82"/>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B107" s="77"/>
       <c r="C107" s="78"/>
-      <c r="D107" s="112"/>
-      <c r="E107" s="112"/>
+      <c r="D107" s="111"/>
+      <c r="E107" s="111"/>
       <c r="F107" s="78"/>
       <c r="G107" s="78"/>
       <c r="H107" s="78"/>
-      <c r="I107" s="110"/>
+      <c r="I107" s="109"/>
       <c r="J107" s="78"/>
-      <c r="K107" s="125"/>
+      <c r="K107" s="124"/>
       <c r="L107" s="78"/>
       <c r="M107" s="82"/>
-      <c r="N107" s="113"/>
-      <c r="O107" s="114"/>
-      <c r="P107" s="113"/>
-      <c r="Q107" s="110"/>
+      <c r="N107" s="112"/>
+      <c r="O107" s="113"/>
+      <c r="P107" s="112"/>
+      <c r="Q107" s="109"/>
       <c r="R107" s="82"/>
-      <c r="S107" s="115"/>
+      <c r="S107" s="114"/>
       <c r="T107" s="82"/>
-      <c r="U107" s="115"/>
+      <c r="U107" s="114"/>
       <c r="V107" s="82"/>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B108" s="77"/>
       <c r="C108" s="78"/>
-      <c r="D108" s="112"/>
-      <c r="E108" s="112"/>
+      <c r="D108" s="111"/>
+      <c r="E108" s="111"/>
       <c r="F108" s="78"/>
       <c r="G108" s="78"/>
       <c r="H108" s="78"/>
-      <c r="I108" s="110"/>
+      <c r="I108" s="109"/>
       <c r="J108" s="78"/>
-      <c r="K108" s="125"/>
+      <c r="K108" s="124"/>
       <c r="L108" s="78"/>
       <c r="M108" s="82"/>
-      <c r="N108" s="113"/>
-      <c r="O108" s="114"/>
-      <c r="P108" s="113"/>
-      <c r="Q108" s="110"/>
+      <c r="N108" s="112"/>
+      <c r="O108" s="113"/>
+      <c r="P108" s="112"/>
+      <c r="Q108" s="109"/>
       <c r="R108" s="82"/>
-      <c r="S108" s="115"/>
+      <c r="S108" s="114"/>
       <c r="T108" s="82"/>
-      <c r="U108" s="115"/>
+      <c r="U108" s="114"/>
       <c r="V108" s="82"/>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B109" s="77"/>
       <c r="C109" s="78"/>
-      <c r="D109" s="112"/>
-      <c r="E109" s="112"/>
+      <c r="D109" s="111"/>
+      <c r="E109" s="111"/>
       <c r="F109" s="78"/>
       <c r="G109" s="78"/>
       <c r="H109" s="78"/>
-      <c r="I109" s="110"/>
+      <c r="I109" s="109"/>
       <c r="J109" s="78"/>
-      <c r="K109" s="125"/>
+      <c r="K109" s="124"/>
       <c r="L109" s="78"/>
       <c r="M109" s="82"/>
-      <c r="N109" s="113"/>
-      <c r="O109" s="114"/>
-      <c r="P109" s="113"/>
-      <c r="Q109" s="110"/>
+      <c r="N109" s="112"/>
+      <c r="O109" s="113"/>
+      <c r="P109" s="112"/>
+      <c r="Q109" s="109"/>
       <c r="R109" s="82"/>
-      <c r="S109" s="115"/>
+      <c r="S109" s="114"/>
       <c r="T109" s="82"/>
-      <c r="U109" s="115"/>
+      <c r="U109" s="114"/>
       <c r="V109" s="82"/>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B110" s="77"/>
       <c r="C110" s="78"/>
-      <c r="D110" s="112"/>
-      <c r="E110" s="112"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
       <c r="F110" s="78"/>
       <c r="G110" s="78"/>
       <c r="H110" s="78"/>
-      <c r="I110" s="110"/>
+      <c r="I110" s="109"/>
       <c r="J110" s="78"/>
-      <c r="K110" s="125"/>
+      <c r="K110" s="124"/>
       <c r="L110" s="78"/>
       <c r="M110" s="82"/>
-      <c r="N110" s="113"/>
-      <c r="O110" s="114"/>
-      <c r="P110" s="113"/>
-      <c r="Q110" s="110"/>
+      <c r="N110" s="112"/>
+      <c r="O110" s="113"/>
+      <c r="P110" s="112"/>
+      <c r="Q110" s="109"/>
       <c r="R110" s="82"/>
-      <c r="S110" s="115"/>
+      <c r="S110" s="114"/>
       <c r="T110" s="82"/>
-      <c r="U110" s="115"/>
+      <c r="U110" s="114"/>
       <c r="V110" s="82"/>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B111" s="77"/>
       <c r="C111" s="78"/>
-      <c r="D111" s="112"/>
-      <c r="E111" s="112"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
       <c r="F111" s="78"/>
       <c r="G111" s="78"/>
       <c r="H111" s="78"/>
-      <c r="I111" s="110"/>
+      <c r="I111" s="109"/>
       <c r="J111" s="78"/>
-      <c r="K111" s="125"/>
+      <c r="K111" s="124"/>
       <c r="L111" s="78"/>
       <c r="M111" s="82"/>
-      <c r="N111" s="113"/>
-      <c r="O111" s="114"/>
-      <c r="P111" s="113"/>
-      <c r="Q111" s="110"/>
+      <c r="N111" s="112"/>
+      <c r="O111" s="113"/>
+      <c r="P111" s="112"/>
+      <c r="Q111" s="109"/>
       <c r="R111" s="82"/>
-      <c r="S111" s="115"/>
+      <c r="S111" s="114"/>
       <c r="T111" s="82"/>
-      <c r="U111" s="115"/>
+      <c r="U111" s="114"/>
       <c r="V111" s="82"/>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B112" s="77"/>
       <c r="C112" s="78"/>
-      <c r="D112" s="112"/>
-      <c r="E112" s="112"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
       <c r="F112" s="78"/>
       <c r="G112" s="78"/>
       <c r="H112" s="78"/>
-      <c r="I112" s="110"/>
+      <c r="I112" s="109"/>
       <c r="J112" s="78"/>
-      <c r="K112" s="125"/>
+      <c r="K112" s="124"/>
       <c r="L112" s="78"/>
       <c r="M112" s="82"/>
-      <c r="N112" s="113"/>
-      <c r="O112" s="114"/>
-      <c r="P112" s="113"/>
-      <c r="Q112" s="110"/>
+      <c r="N112" s="112"/>
+      <c r="O112" s="113"/>
+      <c r="P112" s="112"/>
+      <c r="Q112" s="109"/>
       <c r="R112" s="82"/>
-      <c r="S112" s="115"/>
+      <c r="S112" s="114"/>
       <c r="T112" s="82"/>
-      <c r="U112" s="115"/>
+      <c r="U112" s="114"/>
       <c r="V112" s="82"/>
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B113" s="77"/>
       <c r="C113" s="78"/>
-      <c r="D113" s="112"/>
-      <c r="E113" s="112"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
       <c r="F113" s="78"/>
       <c r="G113" s="78"/>
       <c r="H113" s="78"/>
-      <c r="I113" s="110"/>
+      <c r="I113" s="109"/>
       <c r="J113" s="78"/>
-      <c r="K113" s="125"/>
+      <c r="K113" s="124"/>
       <c r="L113" s="78"/>
       <c r="M113" s="82"/>
-      <c r="N113" s="113"/>
-      <c r="O113" s="114"/>
-      <c r="P113" s="113"/>
-      <c r="Q113" s="110"/>
+      <c r="N113" s="112"/>
+      <c r="O113" s="113"/>
+      <c r="P113" s="112"/>
+      <c r="Q113" s="109"/>
       <c r="R113" s="82"/>
-      <c r="S113" s="115"/>
+      <c r="S113" s="114"/>
       <c r="T113" s="82"/>
-      <c r="U113" s="115"/>
+      <c r="U113" s="114"/>
       <c r="V113" s="82"/>
     </row>
     <row r="114" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B114" s="77"/>
       <c r="C114" s="78"/>
-      <c r="D114" s="112"/>
-      <c r="E114" s="112"/>
+      <c r="D114" s="111"/>
+      <c r="E114" s="111"/>
       <c r="F114" s="78"/>
       <c r="G114" s="78"/>
       <c r="H114" s="78"/>
-      <c r="I114" s="110"/>
+      <c r="I114" s="109"/>
       <c r="J114" s="78"/>
-      <c r="K114" s="125"/>
+      <c r="K114" s="124"/>
       <c r="L114" s="78"/>
       <c r="M114" s="82"/>
-      <c r="N114" s="113"/>
-      <c r="O114" s="114"/>
-      <c r="P114" s="113"/>
-      <c r="Q114" s="110"/>
+      <c r="N114" s="112"/>
+      <c r="O114" s="113"/>
+      <c r="P114" s="112"/>
+      <c r="Q114" s="109"/>
       <c r="R114" s="82"/>
-      <c r="S114" s="115"/>
+      <c r="S114" s="114"/>
       <c r="T114" s="82"/>
-      <c r="U114" s="115"/>
+      <c r="U114" s="114"/>
       <c r="V114" s="82"/>
     </row>
     <row r="115" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B115" s="77"/>
       <c r="C115" s="78"/>
-      <c r="D115" s="112"/>
-      <c r="E115" s="112"/>
+      <c r="D115" s="111"/>
+      <c r="E115" s="111"/>
       <c r="F115" s="78"/>
       <c r="G115" s="78"/>
       <c r="H115" s="78"/>
-      <c r="I115" s="110"/>
+      <c r="I115" s="109"/>
       <c r="J115" s="78"/>
-      <c r="K115" s="125"/>
+      <c r="K115" s="124"/>
       <c r="L115" s="78"/>
       <c r="M115" s="82"/>
-      <c r="N115" s="113"/>
-      <c r="O115" s="114"/>
-      <c r="P115" s="113"/>
-      <c r="Q115" s="110"/>
+      <c r="N115" s="112"/>
+      <c r="O115" s="113"/>
+      <c r="P115" s="112"/>
+      <c r="Q115" s="109"/>
       <c r="R115" s="82"/>
-      <c r="S115" s="115"/>
+      <c r="S115" s="114"/>
       <c r="T115" s="82"/>
-      <c r="U115" s="115"/>
+      <c r="U115" s="114"/>
       <c r="V115" s="82"/>
     </row>
     <row r="116" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B116" s="77"/>
       <c r="C116" s="78"/>
-      <c r="D116" s="112"/>
-      <c r="E116" s="112"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="111"/>
       <c r="F116" s="78"/>
       <c r="G116" s="78"/>
       <c r="H116" s="78"/>
-      <c r="I116" s="110"/>
+      <c r="I116" s="109"/>
       <c r="J116" s="78"/>
-      <c r="K116" s="125"/>
+      <c r="K116" s="124"/>
       <c r="L116" s="78"/>
       <c r="M116" s="82"/>
-      <c r="N116" s="113"/>
-      <c r="O116" s="114"/>
-      <c r="P116" s="113"/>
-      <c r="Q116" s="110"/>
+      <c r="N116" s="112"/>
+      <c r="O116" s="113"/>
+      <c r="P116" s="112"/>
+      <c r="Q116" s="109"/>
       <c r="R116" s="82"/>
-      <c r="S116" s="115"/>
+      <c r="S116" s="114"/>
       <c r="T116" s="82"/>
-      <c r="U116" s="115"/>
+      <c r="U116" s="114"/>
       <c r="V116" s="82"/>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B117" s="77"/>
       <c r="C117" s="78"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="112"/>
+      <c r="D117" s="111"/>
+      <c r="E117" s="111"/>
       <c r="F117" s="78"/>
       <c r="G117" s="78"/>
       <c r="H117" s="78"/>
-      <c r="I117" s="110"/>
+      <c r="I117" s="109"/>
       <c r="J117" s="78"/>
-      <c r="K117" s="125"/>
+      <c r="K117" s="124"/>
       <c r="L117" s="78"/>
       <c r="M117" s="82"/>
-      <c r="N117" s="113"/>
-      <c r="O117" s="114"/>
-      <c r="P117" s="113"/>
-      <c r="Q117" s="110"/>
+      <c r="N117" s="112"/>
+      <c r="O117" s="113"/>
+      <c r="P117" s="112"/>
+      <c r="Q117" s="109"/>
       <c r="R117" s="82"/>
-      <c r="S117" s="115"/>
+      <c r="S117" s="114"/>
       <c r="T117" s="82"/>
-      <c r="U117" s="115"/>
+      <c r="U117" s="114"/>
       <c r="V117" s="82"/>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B118" s="77"/>
       <c r="C118" s="78"/>
-      <c r="D118" s="112"/>
-      <c r="E118" s="112"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
       <c r="F118" s="78"/>
       <c r="G118" s="78"/>
       <c r="H118" s="78"/>
-      <c r="I118" s="110"/>
+      <c r="I118" s="109"/>
       <c r="J118" s="78"/>
-      <c r="K118" s="125"/>
+      <c r="K118" s="124"/>
       <c r="L118" s="78"/>
       <c r="M118" s="82"/>
-      <c r="N118" s="113"/>
-      <c r="O118" s="114"/>
-      <c r="P118" s="113"/>
-      <c r="Q118" s="110"/>
+      <c r="N118" s="112"/>
+      <c r="O118" s="113"/>
+      <c r="P118" s="112"/>
+      <c r="Q118" s="109"/>
       <c r="R118" s="82"/>
-      <c r="S118" s="115"/>
+      <c r="S118" s="114"/>
       <c r="T118" s="82"/>
-      <c r="U118" s="115"/>
+      <c r="U118" s="114"/>
       <c r="V118" s="82"/>
     </row>
     <row r="119" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B119" s="77"/>
       <c r="C119" s="78"/>
-      <c r="D119" s="112"/>
-      <c r="E119" s="112"/>
+      <c r="D119" s="111"/>
+      <c r="E119" s="111"/>
       <c r="F119" s="78"/>
       <c r="G119" s="78"/>
       <c r="H119" s="78"/>
-      <c r="I119" s="110"/>
+      <c r="I119" s="109"/>
       <c r="J119" s="78"/>
-      <c r="K119" s="127"/>
+      <c r="K119" s="126"/>
       <c r="L119" s="78"/>
       <c r="M119" s="82"/>
-      <c r="N119" s="113"/>
-      <c r="O119" s="114"/>
-      <c r="P119" s="113"/>
-      <c r="Q119" s="110"/>
+      <c r="N119" s="112"/>
+      <c r="O119" s="113"/>
+      <c r="P119" s="112"/>
+      <c r="Q119" s="109"/>
       <c r="R119" s="82"/>
-      <c r="S119" s="115"/>
+      <c r="S119" s="114"/>
       <c r="T119" s="82"/>
-      <c r="U119" s="115"/>
+      <c r="U119" s="114"/>
       <c r="V119" s="82"/>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B120" s="77"/>
       <c r="C120" s="78"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="112"/>
+      <c r="D120" s="111"/>
+      <c r="E120" s="111"/>
       <c r="F120" s="78"/>
       <c r="G120" s="78"/>
       <c r="H120" s="78"/>
-      <c r="I120" s="110"/>
+      <c r="I120" s="109"/>
       <c r="J120" s="78"/>
-      <c r="K120" s="125"/>
+      <c r="K120" s="124"/>
       <c r="L120" s="78"/>
       <c r="M120" s="82"/>
-      <c r="N120" s="113"/>
-      <c r="O120" s="114"/>
-      <c r="P120" s="113"/>
-      <c r="Q120" s="110"/>
+      <c r="N120" s="112"/>
+      <c r="O120" s="113"/>
+      <c r="P120" s="112"/>
+      <c r="Q120" s="109"/>
       <c r="R120" s="82"/>
-      <c r="S120" s="115"/>
+      <c r="S120" s="114"/>
       <c r="T120" s="82"/>
-      <c r="U120" s="115"/>
+      <c r="U120" s="114"/>
       <c r="V120" s="82"/>
     </row>
     <row r="121" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="116"/>
-      <c r="C121" s="117"/>
-      <c r="D121" s="118"/>
-      <c r="E121" s="118"/>
-      <c r="F121" s="117"/>
-      <c r="G121" s="117"/>
-      <c r="H121" s="117"/>
-      <c r="I121" s="119"/>
-      <c r="J121" s="117"/>
-      <c r="K121" s="126"/>
-      <c r="L121" s="117"/>
-      <c r="M121" s="120"/>
-      <c r="N121" s="121"/>
-      <c r="O121" s="122"/>
-      <c r="P121" s="121"/>
-      <c r="Q121" s="119"/>
-      <c r="R121" s="120"/>
-      <c r="S121" s="123"/>
-      <c r="T121" s="120"/>
-      <c r="U121" s="123"/>
-      <c r="V121" s="120"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="116"/>
+      <c r="H121" s="116"/>
+      <c r="I121" s="118"/>
+      <c r="J121" s="116"/>
+      <c r="K121" s="125"/>
+      <c r="L121" s="116"/>
+      <c r="M121" s="119"/>
+      <c r="N121" s="120"/>
+      <c r="O121" s="121"/>
+      <c r="P121" s="120"/>
+      <c r="Q121" s="118"/>
+      <c r="R121" s="119"/>
+      <c r="S121" s="122"/>
+      <c r="T121" s="119"/>
+      <c r="U121" s="122"/>
+      <c r="V121" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10260,7 +10236,7 @@
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U121">
       <formula1>"Approved,Rejected"</formula1>
     </dataValidation>
@@ -10313,9 +10289,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
